--- a/Architecture.xlsx
+++ b/Architecture.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agilavasu_p\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06 Agila\01 Proj\01 Art\01  AaaS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3274,8 +3274,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11526116" y="6978227"/>
-          <a:ext cx="3040207" cy="1811630"/>
+          <a:off x="11471275" y="7161305"/>
+          <a:ext cx="3025775" cy="1861110"/>
           <a:chOff x="6991350" y="447675"/>
           <a:chExt cx="3114675" cy="1857375"/>
         </a:xfrm>
@@ -3704,8 +3704,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11516966" y="1735524"/>
-          <a:ext cx="3040207" cy="1811629"/>
+          <a:off x="11462125" y="1780056"/>
+          <a:ext cx="3025775" cy="1861110"/>
           <a:chOff x="7010400" y="2524125"/>
           <a:chExt cx="3114675" cy="1857375"/>
         </a:xfrm>
@@ -4147,15 +4147,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>18679</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>17928</xdr:rowOff>
+      <xdr:colOff>377413</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>92149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>37727</xdr:colOff>
+      <xdr:colOff>396461</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>164538</xdr:rowOff>
+      <xdr:rowOff>53207</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4164,8 +4164,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7898452" y="203480"/>
-          <a:ext cx="3049730" cy="1816577"/>
+          <a:off x="8219663" y="92149"/>
+          <a:ext cx="3035298" cy="1866058"/>
           <a:chOff x="1724025" y="2857500"/>
           <a:chExt cx="3114675" cy="1857375"/>
         </a:xfrm>
@@ -4391,8 +4391,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4254536" y="8554067"/>
-          <a:ext cx="3056453" cy="1812842"/>
+          <a:off x="4234331" y="8781677"/>
+          <a:ext cx="3042022" cy="1857375"/>
           <a:chOff x="2133600" y="4219575"/>
           <a:chExt cx="3114675" cy="1857375"/>
         </a:xfrm>
@@ -4620,15 +4620,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>11583</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>2099</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>37356</xdr:colOff>
+      <xdr:colOff>24985</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>115047</xdr:rowOff>
+      <xdr:rowOff>65566</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4637,8 +4637,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7891356" y="5381006"/>
-          <a:ext cx="3056455" cy="1785015"/>
+          <a:off x="7844349" y="5470070"/>
+          <a:ext cx="3039136" cy="1834496"/>
           <a:chOff x="1238250" y="5229225"/>
           <a:chExt cx="3114675" cy="1857375"/>
         </a:xfrm>
@@ -4731,7 +4731,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>R,</a:t>
+              <a:t>R and</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
@@ -4755,19 +4755,23 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>MADlib and Zeppelin</a:t>
+              <a:t>MADlib</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr lang="en-US" sz="1000" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
@@ -4882,8 +4886,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2514600" y="5334078"/>
-            <a:ext cx="541797" cy="409497"/>
+            <a:off x="2537446" y="5427012"/>
+            <a:ext cx="469927" cy="355177"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4911,37 +4915,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2924176" y="5858005"/>
-            <a:ext cx="964356" cy="599945"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="65" name="Picture 64"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3400425" y="6426871"/>
-            <a:ext cx="752475" cy="602580"/>
+            <a:off x="2874163" y="5950037"/>
+            <a:ext cx="961252" cy="598014"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4966,249 +4941,72 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="77" name="Group 76"/>
+        <xdr:cNvPr id="67" name="Group 66"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4242955" y="5381006"/>
-          <a:ext cx="3044360" cy="1785462"/>
-          <a:chOff x="6724651" y="4076700"/>
-          <a:chExt cx="3067050" cy="1857375"/>
+          <a:off x="4222750" y="5524500"/>
+          <a:ext cx="3029929" cy="1829994"/>
+          <a:chOff x="1238250" y="5229225"/>
+          <a:chExt cx="3114675" cy="1857375"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="67" name="Group 66"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="6724651" y="4076700"/>
-            <a:ext cx="3067050" cy="1857375"/>
-            <a:chOff x="1238250" y="5229225"/>
-            <a:chExt cx="3114675" cy="1857375"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="68" name="Rectangle 67"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1238250" y="5229225"/>
-              <a:ext cx="3114675" cy="1857375"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent5"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent5"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="69" name="TextBox 68"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1266825" y="5257800"/>
-              <a:ext cx="1095375" cy="1800225"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Shiny R, ShinyProxy and Docker</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="700" b="0" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(Interactive visualization of R analytics)</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="en-US" sz="1000" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Deliver Information</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="750" b="0" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Visual Analytics)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="73" name="Picture 72"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="68" name="Rectangle 67"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8667750" y="5199505"/>
-            <a:ext cx="704849" cy="629796"/>
+            <a:off x="1238250" y="5229225"/>
+            <a:ext cx="3114675" cy="1857375"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
-      </xdr:pic>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="TextBox 74"/>
+          <xdr:cNvPr id="69" name="TextBox 68"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8515352" y="4781551"/>
-            <a:ext cx="1076324" cy="247650"/>
+            <a:off x="1266825" y="5257800"/>
+            <a:ext cx="1095375" cy="1800225"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
@@ -5222,62 +5020,94 @@
             <a:scrgbClr r="0" g="0" b="0"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
+            <a:schemeClr val="tx1"/>
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
           <a:lstStyle/>
           <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>D3.JS</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="700" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
             <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1" cap="none" spc="0">
-                <a:ln w="0"/>
+              <a:rPr lang="en-US" sz="1200" b="1" i="0">
                 <a:solidFill>
-                  <a:srgbClr val="002060"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>ShinyProxy </a:t>
+              <a:t>Deliver Information</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="800" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="750" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Visual Analytics)</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="76" name="Picture 75"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7934325" y="4174617"/>
-            <a:ext cx="704851" cy="817627"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -5301,8 +5131,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="608190" y="7054336"/>
-          <a:ext cx="3049732" cy="1809108"/>
+          <a:off x="605304" y="7242362"/>
+          <a:ext cx="3035300" cy="1853640"/>
           <a:chOff x="1190626" y="6076950"/>
           <a:chExt cx="3067050" cy="1857375"/>
         </a:xfrm>
@@ -5481,7 +5311,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5525,8 +5355,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4243329" y="3306036"/>
-          <a:ext cx="3049731" cy="1807896"/>
+          <a:off x="4223124" y="3390153"/>
+          <a:ext cx="3035300" cy="1857376"/>
           <a:chOff x="6724651" y="6019800"/>
           <a:chExt cx="3067050" cy="1857375"/>
         </a:xfrm>
@@ -5720,7 +5550,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -5758,8 +5588,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="616970" y="3352823"/>
-          <a:ext cx="3049732" cy="1809108"/>
+          <a:off x="614084" y="3441888"/>
+          <a:ext cx="3035300" cy="1853640"/>
           <a:chOff x="1162050" y="8181975"/>
           <a:chExt cx="3067050" cy="1857375"/>
         </a:xfrm>
@@ -5780,13 +5610,13 @@
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
-            <a:schemeClr val="accent5"/>
+            <a:schemeClr val="accent2"/>
           </a:lnRef>
           <a:fillRef idx="1">
             <a:schemeClr val="lt1"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent5"/>
+            <a:schemeClr val="accent2"/>
           </a:effectRef>
           <a:fontRef idx="minor">
             <a:schemeClr val="dk1"/>
@@ -5814,25 +5644,20 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
-          </a:ln>
+          <a:ln/>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
           </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
+            <a:schemeClr val="accent2"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="dk1"/>
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
@@ -5862,7 +5687,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5882,6 +5707,20 @@
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
@@ -5891,7 +5730,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5911,6 +5750,20 @@
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
       </xdr:pic>
     </xdr:grpSp>
     <xdr:clientData/>
@@ -5935,8 +5788,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="608294" y="225892"/>
-          <a:ext cx="3039544" cy="1809107"/>
+          <a:off x="608294" y="230840"/>
+          <a:ext cx="3022226" cy="1853640"/>
           <a:chOff x="5553075" y="8343900"/>
           <a:chExt cx="3067050" cy="1857375"/>
         </a:xfrm>
@@ -5970,13 +5823,13 @@
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="2">
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent2"/>
             </a:lnRef>
             <a:fillRef idx="1">
               <a:schemeClr val="lt1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent2"/>
             </a:effectRef>
             <a:fontRef idx="minor">
               <a:schemeClr val="dk1"/>
@@ -6004,25 +5857,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:ln>
+            <a:ln/>
           </xdr:spPr>
           <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
             </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+              <a:schemeClr val="accent2"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="dk1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
@@ -6052,7 +5900,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6072,6 +5920,20 @@
               <a:avLst/>
             </a:prstGeom>
           </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
         </xdr:pic>
       </xdr:grpSp>
       <xdr:pic>
@@ -6082,7 +5944,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6102,6 +5964,20 @@
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
@@ -6111,7 +5987,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6131,6 +6007,20 @@
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
@@ -6140,7 +6030,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6160,6 +6050,20 @@
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
       </xdr:pic>
     </xdr:grpSp>
     <xdr:clientData/>
@@ -6368,13 +6272,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>37356</xdr:colOff>
+      <xdr:colOff>24985</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>136992</xdr:rowOff>
+      <xdr:rowOff>100819</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>37884</xdr:colOff>
+      <xdr:colOff>37417</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>90860</xdr:rowOff>
     </xdr:to>
@@ -6388,8 +6292,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="13596474" y="7420816"/>
-          <a:ext cx="1233175" cy="1634750"/>
+          <a:off x="10935440" y="6224033"/>
+          <a:ext cx="618568" cy="1660009"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6420,13 +6324,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>13679</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>136992</xdr:rowOff>
+      <xdr:rowOff>100819</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>11583</xdr:colOff>
+      <xdr:colOff>2099</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>139307</xdr:rowOff>
+      <xdr:rowOff>150523</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6438,8 +6342,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7951179" y="6780069"/>
-          <a:ext cx="1219058" cy="2315"/>
+          <a:off x="7287315" y="6224033"/>
+          <a:ext cx="591670" cy="49704"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6664,6 +6568,94 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>49480</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>480382</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>148442</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5504707" y="5690261"/>
+          <a:ext cx="1643175" cy="1138051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>507176</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>41215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>494806</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>145597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10205358" y="6535533"/>
+          <a:ext cx="593766" cy="475486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6957,8 +6949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AJ50" sqref="AJ50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Architecture.xlsx
+++ b/Architecture.xlsx
@@ -13,8 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Arc" sheetId="1" r:id="rId1"/>
-    <sheet name="Arc 2" sheetId="4" r:id="rId2"/>
-    <sheet name="Arc ETL" sheetId="6" r:id="rId3"/>
+    <sheet name="Arc Detail" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -3173,8 +3172,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14547649" y="1098874"/>
-          <a:ext cx="3040207" cy="1832247"/>
+          <a:off x="14478376" y="1113306"/>
+          <a:ext cx="3025775" cy="1861110"/>
           <a:chOff x="7010400" y="2524125"/>
           <a:chExt cx="3114675" cy="1857375"/>
         </a:xfrm>
@@ -3633,8 +3632,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="595940" y="2359502"/>
-          <a:ext cx="3043547" cy="1824776"/>
+          <a:off x="595940" y="2394138"/>
+          <a:ext cx="3026229" cy="1853640"/>
           <a:chOff x="1162050" y="8181975"/>
           <a:chExt cx="3067050" cy="1857375"/>
         </a:xfrm>
@@ -3790,8 +3789,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="606026" y="286918"/>
-          <a:ext cx="3036659" cy="1824776"/>
+          <a:off x="606026" y="289804"/>
+          <a:ext cx="3022227" cy="1853640"/>
           <a:chOff x="5553075" y="8343900"/>
           <a:chExt cx="3067050" cy="1857375"/>
         </a:xfrm>
@@ -4134,8 +4133,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4828436" y="1048901"/>
-          <a:ext cx="3049731" cy="1828513"/>
+          <a:off x="4808231" y="1063333"/>
+          <a:ext cx="3035300" cy="1857376"/>
           <a:chOff x="4286624" y="3390153"/>
           <a:chExt cx="3080657" cy="1857376"/>
         </a:xfrm>
@@ -4466,8 +4465,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10909382" y="7904618"/>
-          <a:ext cx="3064371" cy="5836243"/>
+          <a:off x="10860314" y="8025845"/>
+          <a:ext cx="3047053" cy="5925721"/>
           <a:chOff x="10861694" y="5187671"/>
           <a:chExt cx="3071901" cy="6011307"/>
         </a:xfrm>
@@ -4817,30 +4816,6 @@
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:rPr>
-                  <a:t>R,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
                   <a:t>MADlib and Zeppelin</a:t>
                 </a:r>
               </a:p>
@@ -4953,13 +4928,13 @@
           </xdr:sp>
           <xdr:pic>
             <xdr:nvPicPr>
-              <xdr:cNvPr id="63" name="Picture 62"/>
+              <xdr:cNvPr id="64" name="Picture 63"/>
               <xdr:cNvPicPr>
                 <a:picLocks noChangeAspect="1"/>
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
                 <a:extLst>
                   <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                     <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4972,37 +4947,8 @@
             </xdr:blipFill>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="2537446" y="5427012"/>
-                <a:ext cx="469927" cy="355177"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="64" name="Picture 63"/>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-                <a:extLst>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="2874163" y="5950037"/>
-                <a:ext cx="961252" cy="598014"/>
+                <a:off x="2679396" y="5459341"/>
+                <a:ext cx="1154178" cy="718038"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -5018,7 +4964,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5031,8 +4977,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15515852" y="5575286"/>
-              <a:ext cx="613146" cy="496221"/>
+              <a:off x="14709093" y="5250896"/>
+              <a:ext cx="1068258" cy="864544"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5195,7 +5141,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5240,8 +5186,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14488833" y="9881732"/>
-          <a:ext cx="3040207" cy="1832245"/>
+          <a:off x="14422447" y="10031823"/>
+          <a:ext cx="3025775" cy="1861109"/>
           <a:chOff x="12460060" y="5963877"/>
           <a:chExt cx="3071132" cy="1861110"/>
         </a:xfrm>
@@ -5317,7 +5263,7 @@
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
                 <a:extLst>
                   <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                     <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5346,7 +5292,7 @@
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
                 <a:extLst>
                   <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                     <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5375,7 +5321,7 @@
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
                 <a:extLst>
                   <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                     <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5404,7 +5350,7 @@
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
                 <a:extLst>
                   <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                     <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5433,7 +5379,7 @@
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
                 <a:extLst>
                   <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                     <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5727,7 +5673,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5757,7 +5703,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5802,7 +5748,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6068,8 +6014,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="302342" y="7073151"/>
-          <a:ext cx="3066849" cy="5835026"/>
+          <a:off x="302342" y="7179946"/>
+          <a:ext cx="3052417" cy="5924504"/>
           <a:chOff x="874946" y="7923725"/>
           <a:chExt cx="3073124" cy="6010091"/>
         </a:xfrm>
@@ -6263,7 +6209,7 @@
                 </xdr:cNvPicPr>
               </xdr:nvPicPr>
               <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
                   <a:extLst>
                     <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                       <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6292,7 +6238,7 @@
                 </xdr:cNvPicPr>
               </xdr:nvPicPr>
               <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
                   <a:extLst>
                     <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                       <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6321,7 +6267,7 @@
                 </xdr:cNvPicPr>
               </xdr:nvPicPr>
               <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
                   <a:extLst>
                     <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                       <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6476,7 +6422,7 @@
                   </xdr:cNvPicPr>
                 </xdr:nvPicPr>
                 <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
                     <a:extLst>
                       <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                         <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6505,7 +6451,7 @@
                   </xdr:cNvPicPr>
                 </xdr:nvPicPr>
                 <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
                     <a:extLst>
                       <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                         <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6534,7 +6480,7 @@
                   </xdr:cNvPicPr>
                 </xdr:nvPicPr>
                 <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
                     <a:extLst>
                       <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                         <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6564,7 +6510,7 @@
                 </xdr:cNvPicPr>
               </xdr:nvPicPr>
               <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
                   <a:extLst>
                     <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                       <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6764,7 +6710,7 @@
                   </xdr:cNvPicPr>
                 </xdr:nvPicPr>
                 <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
                     <a:extLst>
                       <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                         <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6793,7 +6739,7 @@
                   </xdr:cNvPicPr>
                 </xdr:nvPicPr>
                 <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
                     <a:extLst>
                       <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                         <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6822,7 +6768,7 @@
                   </xdr:cNvPicPr>
                 </xdr:nvPicPr>
                 <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
                     <a:extLst>
                       <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                         <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6911,7 +6857,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6941,7 +6887,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6970,7 +6916,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7015,7 +6961,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7058,8 +7004,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4196092" y="5057416"/>
-          <a:ext cx="5952507" cy="11276213"/>
+          <a:off x="4178774" y="5132461"/>
+          <a:ext cx="5923643" cy="11452282"/>
           <a:chOff x="4203622" y="5204244"/>
           <a:chExt cx="5965056" cy="11620695"/>
         </a:xfrm>
@@ -7462,7 +7408,7 @@
                     </xdr:cNvPicPr>
                   </xdr:nvPicPr>
                   <xdr:blipFill>
-                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
                       <a:extLst>
                         <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                           <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7630,7 +7576,7 @@
                     </xdr:cNvPicPr>
                   </xdr:nvPicPr>
                   <xdr:blipFill>
-                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
                       <a:extLst>
                         <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                           <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7659,7 +7605,7 @@
                     </xdr:cNvPicPr>
                   </xdr:nvPicPr>
                   <xdr:blipFill>
-                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
                       <a:extLst>
                         <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                           <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7806,7 +7752,7 @@
                     </xdr:cNvPicPr>
                   </xdr:nvPicPr>
                   <xdr:blipFill>
-                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
                       <a:extLst>
                         <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                           <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7982,7 +7928,7 @@
                     </xdr:cNvPicPr>
                   </xdr:nvPicPr>
                   <xdr:blipFill>
-                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
                       <a:extLst>
                         <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                           <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8859,7 +8805,7 @@
                   </xdr:cNvPicPr>
                 </xdr:nvPicPr>
                 <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
                     <a:extLst>
                       <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                         <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8888,7 +8834,7 @@
                   </xdr:cNvPicPr>
                 </xdr:nvPicPr>
                 <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
                     <a:extLst>
                       <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                         <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9118,7 +9064,7 @@
                     </xdr:cNvPicPr>
                   </xdr:nvPicPr>
                   <xdr:blipFill>
-                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
                       <a:extLst>
                         <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                           <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9237,7 +9183,7 @@
                     </xdr:cNvPicPr>
                   </xdr:nvPicPr>
                   <xdr:blipFill>
-                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print">
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
                       <a:extLst>
                         <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                           <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9319,7 +9265,7 @@
                 </xdr:cNvPicPr>
               </xdr:nvPicPr>
               <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
                 <a:stretch>
                   <a:fillRect/>
                 </a:stretch>
@@ -9461,7 +9407,7 @@
                 </xdr:cNvPicPr>
               </xdr:nvPicPr>
               <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
                   <a:extLst>
                     <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                       <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9613,7 +9559,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9642,7 +9588,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9671,7 +9617,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9700,7 +9646,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9729,7 +9675,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9774,7 +9720,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9818,7 +9764,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9862,7 +9808,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9906,7 +9852,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9950,7 +9896,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9994,7 +9940,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10053,6789 +9999,6 @@
         <a:xfrm>
           <a:off x="6896100" y="13356594"/>
           <a:ext cx="1029599" cy="1107639"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>365501</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>113181</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>375026</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>69291</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8207751" y="1065681"/>
-          <a:ext cx="3025775" cy="1861110"/>
-          <a:chOff x="7010400" y="2524125"/>
-          <a:chExt cx="3114675" cy="1857375"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectangle 2"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7010400" y="2524125"/>
-            <a:ext cx="3114675" cy="1857375"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent5"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="TextBox 3"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7038975" y="2552700"/>
-            <a:ext cx="1095375" cy="1800225"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Hortonworks</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> Dataflow Cluster </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="700" b="0" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>(powered by Apache Nifi)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-US" sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Provision data</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="700" b="0" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>(Data Ingestion and provenance)</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="TextBox 4"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8181976" y="3209926"/>
-            <a:ext cx="1924050" cy="219074"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Nifi Cluster Manager</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> (Master)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="Picture 5"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9384926" y="3743325"/>
-            <a:ext cx="721098" cy="628649"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="7" name="Picture 6"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8801101" y="3392139"/>
-            <a:ext cx="766720" cy="417862"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="8" name="Picture 7"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8324851" y="2785787"/>
-            <a:ext cx="383086" cy="365760"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="9" name="Picture 8"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9582151" y="2795312"/>
-            <a:ext cx="383086" cy="365760"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="TextBox 9"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8267701" y="2543176"/>
-            <a:ext cx="1695450" cy="180974"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Nifi Nodes (Slaves)</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="11" name="Picture 10"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8963026" y="2785787"/>
-            <a:ext cx="383086" cy="365760"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>595940</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>108138</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2669</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>56778</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="Group 11"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="595940" y="2394138"/>
-          <a:ext cx="3026229" cy="1853640"/>
-          <a:chOff x="1162050" y="8181975"/>
-          <a:chExt cx="3067050" cy="1857375"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Rectangle 12"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1162050" y="8181975"/>
-            <a:ext cx="3067050" cy="1857375"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="TextBox 13"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1190188" y="8210550"/>
-            <a:ext cx="1078626" cy="1800225"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-US" sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="15" name="Picture 14"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1323975" y="8594570"/>
-            <a:ext cx="827286" cy="968530"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>606026</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>99304</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2403</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47944</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="Group 15"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="606026" y="289804"/>
-          <a:ext cx="3015877" cy="1853640"/>
-          <a:chOff x="5553075" y="8343900"/>
-          <a:chExt cx="3067050" cy="1857375"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="17" name="Group 16"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="5553075" y="8343900"/>
-            <a:ext cx="3067050" cy="1857375"/>
-            <a:chOff x="1162050" y="8181975"/>
-            <a:chExt cx="3067050" cy="1857375"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="Rectangle 20"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1162050" y="8181975"/>
-              <a:ext cx="3067050" cy="1857375"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent2"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent2"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="TextBox 21"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1190188" y="8210550"/>
-              <a:ext cx="1078626" cy="1800225"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent2"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent2"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="en-US" sz="1000" b="0" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="23" name="Picture 22"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1323975" y="8594570"/>
-              <a:ext cx="827286" cy="968530"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent2"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent2"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="18" name="Picture 17"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6765493" y="8530969"/>
-            <a:ext cx="474526" cy="472417"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="19" name="Picture 18"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7236421" y="9703778"/>
-            <a:ext cx="322496" cy="397531"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="20" name="Picture 19"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6791325" y="9172510"/>
-            <a:ext cx="423693" cy="419434"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>376463</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>175296</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>246288</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9425213" y="2270796"/>
-          <a:ext cx="473075" cy="526379"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>585481</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>110833</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>604531</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>63209</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="25" name="Group 24"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4808231" y="1063333"/>
-          <a:ext cx="3035300" cy="1857376"/>
-          <a:chOff x="4286624" y="3390153"/>
-          <a:chExt cx="3080657" cy="1857376"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="26" name="Group 25"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4286624" y="3390153"/>
-            <a:ext cx="3080657" cy="1857376"/>
-            <a:chOff x="1238250" y="5229225"/>
-            <a:chExt cx="3114675" cy="1857375"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="29" name="Rectangle 28"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1238250" y="5229225"/>
-              <a:ext cx="3114675" cy="1857375"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent5"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent5"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="30" name="TextBox 29"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1266825" y="5257800"/>
-              <a:ext cx="1095375" cy="1800225"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>FTP Server, HTTP Server and Node.js</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1000" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1000" b="1" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Send</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> and Receive files securely</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1000" b="0" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="27" name="Picture 26"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6715228" y="4579124"/>
-            <a:ext cx="541761" cy="580250"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="28" name="Picture 27"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5957530" y="4166121"/>
-            <a:ext cx="945044" cy="446125"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>188201</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>106365</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>246307</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>84826</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2017001" y="3154365"/>
-          <a:ext cx="1277306" cy="359461"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>134154</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>98691</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>590044</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>18958</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2572554" y="479691"/>
-          <a:ext cx="1065490" cy="1253767"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>605064</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>24845</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>32617</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>45066</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="33" name="Group 32"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="10860314" y="8025845"/>
-          <a:ext cx="3047053" cy="5925721"/>
-          <a:chOff x="10861694" y="5187671"/>
-          <a:chExt cx="3071901" cy="6011307"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="34" name="Group 33"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="10870868" y="7264777"/>
-            <a:ext cx="3062727" cy="1884983"/>
-            <a:chOff x="2133600" y="4219575"/>
-            <a:chExt cx="3114675" cy="1857375"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="47" name="Rectangle 46"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2133600" y="4219575"/>
-              <a:ext cx="3114675" cy="1857375"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent5"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent5"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="48" name="TextBox 47"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2162175" y="4248150"/>
-              <a:ext cx="1095375" cy="1800225"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>SpagoBI  </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="700" b="0" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Business Intelligence </a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Analyze and Deliver Information</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="700" b="0" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(Legacy Analytics, Ad-Hoc reports and etc..)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="49" name="Picture 48"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3324521" y="4620081"/>
-              <a:ext cx="1869600" cy="666294"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="50" name="Picture 49"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3704148" y="5515512"/>
-              <a:ext cx="1085623" cy="375136"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="35" name="Group 34"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="10888402" y="5187671"/>
-            <a:ext cx="3007645" cy="1866350"/>
-            <a:chOff x="13132991" y="4286241"/>
-            <a:chExt cx="3084495" cy="1838678"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="41" name="Group 40"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="13132991" y="4286241"/>
-              <a:ext cx="3084495" cy="1838678"/>
-              <a:chOff x="1238250" y="5242994"/>
-              <a:chExt cx="3114675" cy="1861609"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="43" name="Rectangle 42"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="1238250" y="5242994"/>
-                <a:ext cx="3114675" cy="1861609"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent5"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent5"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr lang="en-US" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="44" name="TextBox 43"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="1266825" y="5257799"/>
-                <a:ext cx="1095375" cy="1819264"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>R,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>MADlib and Zeppelin</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx2"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr marL="0" indent="0" algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>Analyze Data</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr marL="0" indent="0" algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="800" b="0" i="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="750" b="0" i="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>Statistical methods</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr marL="0" indent="0" algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="750" b="0" i="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>and</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="750" b="0" i="0" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t> Machine Learning</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="750" b="0" i="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>)</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="45" name="Picture 44"/>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
-                <a:extLst>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="2537446" y="5427012"/>
-                <a:ext cx="469927" cy="355177"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="46" name="Picture 45"/>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-                <a:extLst>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="2874163" y="5950037"/>
-                <a:ext cx="961252" cy="598014"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-        </xdr:grpSp>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="42" name="Picture 41"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="15515852" y="5575286"/>
-              <a:ext cx="613146" cy="496221"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="36" name="Group 35"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="10861694" y="9311310"/>
-            <a:ext cx="3062728" cy="1887668"/>
-            <a:chOff x="4302660" y="10975917"/>
-            <a:chExt cx="3087379" cy="1860059"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="37" name="Group 36"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="4302660" y="10975917"/>
-              <a:ext cx="3087379" cy="1860059"/>
-              <a:chOff x="2133600" y="4219575"/>
-              <a:chExt cx="3114675" cy="1857375"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="39" name="Rectangle 38"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="2133600" y="4219575"/>
-                <a:ext cx="3114675" cy="1857375"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent5"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent5"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr lang="en-US" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="40" name="TextBox 39"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="2162175" y="4248150"/>
-                <a:ext cx="1095375" cy="1800225"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>Monitoring</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>Dashboards</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:endParaRPr lang="en-US" sz="700" b="0" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="38" name="Picture 37"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5577970" y="11687577"/>
-              <a:ext cx="1694719" cy="544670"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>55572</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>94073</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>65097</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>50182</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="51" name="Group 50"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11517322" y="1046573"/>
-          <a:ext cx="3025775" cy="1861109"/>
-          <a:chOff x="12460060" y="5963877"/>
-          <a:chExt cx="3071132" cy="1861110"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="52" name="Group 51"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="12460060" y="5963877"/>
-            <a:ext cx="3071132" cy="1861110"/>
-            <a:chOff x="11643632" y="7161305"/>
-            <a:chExt cx="3071132" cy="1861110"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="54" name="Group 53"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="11643632" y="7161305"/>
-              <a:ext cx="3071132" cy="1861110"/>
-              <a:chOff x="6991350" y="447675"/>
-              <a:chExt cx="3114675" cy="1857375"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="57" name="Rectangle 56"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="6991350" y="447675"/>
-                <a:ext cx="3114675" cy="1857375"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent5"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent5"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr lang="en-US" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="58" name="Picture 57"/>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
-                <a:extLst>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="8943975" y="1419225"/>
-                <a:ext cx="365760" cy="365760"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="59" name="Picture 58"/>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
-                <a:extLst>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="8258175" y="800100"/>
-                <a:ext cx="274320" cy="274320"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="60" name="Picture 59"/>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
-                <a:extLst>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="8626619" y="2014468"/>
-                <a:ext cx="1078393" cy="282573"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="61" name="Picture 60"/>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
-                <a:extLst>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="9620250" y="781050"/>
-                <a:ext cx="274320" cy="274320"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="62" name="Picture 61"/>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
-                <a:extLst>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="8972550" y="800100"/>
-                <a:ext cx="274320" cy="274320"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="63" name="TextBox 62"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="8220076" y="523876"/>
-                <a:ext cx="1695450" cy="266700"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="9525" cmpd="sng">
-                <a:noFill/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900" b="1">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Segment Hosts</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="64" name="TextBox 63"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="8296276" y="1152526"/>
-                <a:ext cx="1581149" cy="266700"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="9525" cmpd="sng">
-                <a:noFill/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900" b="1">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Master Host</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="65" name="TextBox 64"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="7019925" y="476250"/>
-                <a:ext cx="1095375" cy="1800225"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>MPP Database</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t> Cluster </a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="700" b="0" i="0" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>(Massively Parallel Processing Database ) </a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="700" b="0" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:endParaRPr lang="en-US" sz="1200" b="0" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>Store, distribute and process data</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="55" name="TextBox 54"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="13017500" y="8509000"/>
-              <a:ext cx="584327" cy="254493"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="1">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>GPCC</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="56" name="Picture 55"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="14099268" y="8366125"/>
-              <a:ext cx="492125" cy="492125"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="53" name="Picture 52"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13965669" y="7062294"/>
-            <a:ext cx="252326" cy="242432"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>578536</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>354691</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Picture 65"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6064936" y="1129392"/>
-          <a:ext cx="995355" cy="734786"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>566577</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>89452</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>37531</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>107740</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Right Arrow 66"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="1615659">
-          <a:off x="3614577" y="1803952"/>
-          <a:ext cx="1299754" cy="18288"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>482287</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>75075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>108363</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>93363</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Right Arrow 67"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="19541954">
-          <a:off x="3530287" y="2551575"/>
-          <a:ext cx="1454876" cy="18288"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>302342</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>131446</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>338509</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>150450</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="71" name="Group 70"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="302342" y="7179946"/>
-          <a:ext cx="3052417" cy="5924504"/>
-          <a:chOff x="874946" y="7923725"/>
-          <a:chExt cx="3073124" cy="6010091"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="72" name="Group 71"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="874946" y="7923725"/>
-            <a:ext cx="3073124" cy="6010091"/>
-            <a:chOff x="874946" y="7923725"/>
-            <a:chExt cx="3073124" cy="6010091"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="75" name="Group 74"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="874946" y="7923725"/>
-              <a:ext cx="3073124" cy="6010091"/>
-              <a:chOff x="13878642" y="7896116"/>
-              <a:chExt cx="3073124" cy="6010091"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="77" name="Group 76"/>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="13878642" y="7896116"/>
-                <a:ext cx="3056008" cy="1881249"/>
-                <a:chOff x="585055" y="6710323"/>
-                <a:chExt cx="3080658" cy="1853640"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:grpSp>
-              <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="97" name="Group 96"/>
-                <xdr:cNvGrpSpPr/>
-              </xdr:nvGrpSpPr>
-              <xdr:grpSpPr>
-                <a:xfrm>
-                  <a:off x="585055" y="6710323"/>
-                  <a:ext cx="3080658" cy="1853640"/>
-                  <a:chOff x="1162050" y="8181975"/>
-                  <a:chExt cx="3067050" cy="1857375"/>
-                </a:xfrm>
-              </xdr:grpSpPr>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="101" name="Rectangle 100"/>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="1162050" y="8181975"/>
-                    <a:ext cx="3067050" cy="1857375"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="accent2"/>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="lt1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent2"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="dk1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="l"/>
-                    <a:endParaRPr lang="en-US" sz="1100"/>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="102" name="TextBox 101"/>
-                  <xdr:cNvSpPr txBox="1"/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="1190188" y="8210550"/>
-                    <a:ext cx="1078626" cy="1800225"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:ln/>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="accent2"/>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="lt1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent2"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="dk1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-                    <a:noAutofit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="ctr"/>
-                    <a:endParaRPr lang="en-US" sz="1000" b="0" i="0">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:endParaRPr>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:pic>
-                <xdr:nvPicPr>
-                  <xdr:cNvPr id="103" name="Picture 102"/>
-                  <xdr:cNvPicPr>
-                    <a:picLocks noChangeAspect="1"/>
-                  </xdr:cNvPicPr>
-                </xdr:nvPicPr>
-                <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-                    <a:extLst>
-                      <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                        <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                      </a:ext>
-                    </a:extLst>
-                  </a:blip>
-                  <a:stretch>
-                    <a:fillRect/>
-                  </a:stretch>
-                </xdr:blipFill>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="1323975" y="8594570"/>
-                    <a:ext cx="827286" cy="968530"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="accent2"/>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="lt1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent2"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="dk1"/>
-                  </a:fontRef>
-                </xdr:style>
-              </xdr:pic>
-            </xdr:grpSp>
-            <xdr:pic>
-              <xdr:nvPicPr>
-                <xdr:cNvPr id="98" name="Picture 97"/>
-                <xdr:cNvPicPr>
-                  <a:picLocks noChangeAspect="1"/>
-                </xdr:cNvPicPr>
-              </xdr:nvPicPr>
-              <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
-                  <a:extLst>
-                    <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                      <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                    </a:ext>
-                  </a:extLst>
-                </a:blip>
-                <a:stretch>
-                  <a:fillRect/>
-                </a:stretch>
-              </xdr:blipFill>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="2857501" y="7966983"/>
-                  <a:ext cx="489855" cy="489855"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-              </xdr:spPr>
-            </xdr:pic>
-            <xdr:pic>
-              <xdr:nvPicPr>
-                <xdr:cNvPr id="99" name="Picture 98"/>
-                <xdr:cNvPicPr>
-                  <a:picLocks noChangeAspect="1"/>
-                </xdr:cNvPicPr>
-              </xdr:nvPicPr>
-              <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
-                  <a:extLst>
-                    <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                      <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                    </a:ext>
-                  </a:extLst>
-                </a:blip>
-                <a:stretch>
-                  <a:fillRect/>
-                </a:stretch>
-              </xdr:blipFill>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="2354357" y="7429499"/>
-                  <a:ext cx="487458" cy="487458"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-              </xdr:spPr>
-            </xdr:pic>
-            <xdr:pic>
-              <xdr:nvPicPr>
-                <xdr:cNvPr id="100" name="Picture 99"/>
-                <xdr:cNvPicPr>
-                  <a:picLocks noChangeAspect="1"/>
-                </xdr:cNvPicPr>
-              </xdr:nvPicPr>
-              <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
-                  <a:extLst>
-                    <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                      <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                    </a:ext>
-                  </a:extLst>
-                </a:blip>
-                <a:stretch>
-                  <a:fillRect/>
-                </a:stretch>
-              </xdr:blipFill>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="1837607" y="6885214"/>
-                  <a:ext cx="521026" cy="509550"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-              </xdr:spPr>
-            </xdr:pic>
-          </xdr:grpSp>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="78" name="Group 77"/>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="13895758" y="12027719"/>
-                <a:ext cx="3056008" cy="1878488"/>
-                <a:chOff x="587777" y="9992365"/>
-                <a:chExt cx="3080658" cy="1853640"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:grpSp>
-              <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="88" name="Group 87"/>
-                <xdr:cNvGrpSpPr/>
-              </xdr:nvGrpSpPr>
-              <xdr:grpSpPr>
-                <a:xfrm>
-                  <a:off x="587777" y="9992365"/>
-                  <a:ext cx="3080658" cy="1853640"/>
-                  <a:chOff x="585055" y="6710323"/>
-                  <a:chExt cx="3080658" cy="1853640"/>
-                </a:xfrm>
-              </xdr:grpSpPr>
-              <xdr:grpSp>
-                <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="91" name="Group 90"/>
-                  <xdr:cNvGrpSpPr/>
-                </xdr:nvGrpSpPr>
-                <xdr:grpSpPr>
-                  <a:xfrm>
-                    <a:off x="585055" y="6710323"/>
-                    <a:ext cx="3080658" cy="1853640"/>
-                    <a:chOff x="1162050" y="8181975"/>
-                    <a:chExt cx="3067050" cy="1857375"/>
-                  </a:xfrm>
-                </xdr:grpSpPr>
-                <xdr:sp macro="" textlink="">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="95" name="Rectangle 94"/>
-                    <xdr:cNvSpPr/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="1162050" y="8181975"/>
-                      <a:ext cx="3067050" cy="1857375"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="2">
-                      <a:schemeClr val="accent2"/>
-                    </a:lnRef>
-                    <a:fillRef idx="1">
-                      <a:schemeClr val="lt1"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="accent2"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="dk1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr algn="l"/>
-                      <a:endParaRPr lang="en-US" sz="1100"/>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-                <xdr:sp macro="" textlink="">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="96" name="TextBox 95"/>
-                    <xdr:cNvSpPr txBox="1"/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="1190188" y="8210550"/>
-                      <a:ext cx="1078626" cy="1800225"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:ln/>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="2">
-                      <a:schemeClr val="accent2"/>
-                    </a:lnRef>
-                    <a:fillRef idx="1">
-                      <a:schemeClr val="lt1"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="accent2"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="dk1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-                      <a:noAutofit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr algn="ctr"/>
-                      <a:endParaRPr lang="en-US" sz="1000" b="0" i="0">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:endParaRPr>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-              </xdr:grpSp>
-              <xdr:pic>
-                <xdr:nvPicPr>
-                  <xdr:cNvPr id="92" name="Picture 91"/>
-                  <xdr:cNvPicPr>
-                    <a:picLocks noChangeAspect="1"/>
-                  </xdr:cNvPicPr>
-                </xdr:nvPicPr>
-                <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
-                    <a:extLst>
-                      <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                        <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                      </a:ext>
-                    </a:extLst>
-                  </a:blip>
-                  <a:stretch>
-                    <a:fillRect/>
-                  </a:stretch>
-                </xdr:blipFill>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="3024489" y="7067946"/>
-                    <a:ext cx="489855" cy="489855"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                </xdr:spPr>
-              </xdr:pic>
-              <xdr:pic>
-                <xdr:nvPicPr>
-                  <xdr:cNvPr id="93" name="Picture 92"/>
-                  <xdr:cNvPicPr>
-                    <a:picLocks noChangeAspect="1"/>
-                  </xdr:cNvPicPr>
-                </xdr:nvPicPr>
-                <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
-                    <a:extLst>
-                      <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                        <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                      </a:ext>
-                    </a:extLst>
-                  </a:blip>
-                  <a:stretch>
-                    <a:fillRect/>
-                  </a:stretch>
-                </xdr:blipFill>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="2423936" y="7061712"/>
-                    <a:ext cx="487458" cy="487458"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                </xdr:spPr>
-              </xdr:pic>
-              <xdr:pic>
-                <xdr:nvPicPr>
-                  <xdr:cNvPr id="94" name="Picture 93"/>
-                  <xdr:cNvPicPr>
-                    <a:picLocks noChangeAspect="1"/>
-                  </xdr:cNvPicPr>
-                </xdr:nvPicPr>
-                <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
-                    <a:extLst>
-                      <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                        <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                      </a:ext>
-                    </a:extLst>
-                  </a:blip>
-                  <a:stretch>
-                    <a:fillRect/>
-                  </a:stretch>
-                </xdr:blipFill>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="1809776" y="7007809"/>
-                    <a:ext cx="521026" cy="509550"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                </xdr:spPr>
-              </xdr:pic>
-            </xdr:grpSp>
-            <xdr:pic>
-              <xdr:nvPicPr>
-                <xdr:cNvPr id="89" name="Picture 88"/>
-                <xdr:cNvPicPr>
-                  <a:picLocks noChangeAspect="1"/>
-                </xdr:cNvPicPr>
-              </xdr:nvPicPr>
-              <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
-                  <a:extLst>
-                    <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                      <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                    </a:ext>
-                  </a:extLst>
-                </a:blip>
-                <a:stretch>
-                  <a:fillRect/>
-                </a:stretch>
-              </xdr:blipFill>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="775608" y="10341429"/>
-                  <a:ext cx="803672" cy="800100"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-              </xdr:spPr>
-            </xdr:pic>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="90" name="TextBox 89"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="721177" y="11185071"/>
-                  <a:ext cx="939168" cy="246221"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:lnRef>
-                <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="tx1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1200">
-                      <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
-                      <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
-                    </a:rPr>
-                    <a:t>Associates</a:t>
-                  </a:r>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-          </xdr:grpSp>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="79" name="Group 78"/>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="13882506" y="9999033"/>
-                <a:ext cx="3056008" cy="1878488"/>
-                <a:chOff x="587777" y="9992365"/>
-                <a:chExt cx="3080658" cy="1853640"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:grpSp>
-              <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="80" name="Group 79"/>
-                <xdr:cNvGrpSpPr/>
-              </xdr:nvGrpSpPr>
-              <xdr:grpSpPr>
-                <a:xfrm>
-                  <a:off x="587777" y="9992365"/>
-                  <a:ext cx="3080658" cy="1853640"/>
-                  <a:chOff x="585055" y="6710323"/>
-                  <a:chExt cx="3080658" cy="1853640"/>
-                </a:xfrm>
-              </xdr:grpSpPr>
-              <xdr:grpSp>
-                <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="82" name="Group 81"/>
-                  <xdr:cNvGrpSpPr/>
-                </xdr:nvGrpSpPr>
-                <xdr:grpSpPr>
-                  <a:xfrm>
-                    <a:off x="585055" y="6710323"/>
-                    <a:ext cx="3080658" cy="1853640"/>
-                    <a:chOff x="1162050" y="8181975"/>
-                    <a:chExt cx="3067050" cy="1857375"/>
-                  </a:xfrm>
-                </xdr:grpSpPr>
-                <xdr:sp macro="" textlink="">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="86" name="Rectangle 85"/>
-                    <xdr:cNvSpPr/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="1162050" y="8181975"/>
-                      <a:ext cx="3067050" cy="1857375"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="2">
-                      <a:schemeClr val="accent2"/>
-                    </a:lnRef>
-                    <a:fillRef idx="1">
-                      <a:schemeClr val="lt1"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="accent2"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="dk1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr algn="l"/>
-                      <a:endParaRPr lang="en-US" sz="1100"/>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-                <xdr:sp macro="" textlink="">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="87" name="TextBox 86"/>
-                    <xdr:cNvSpPr txBox="1"/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="1190188" y="8210550"/>
-                      <a:ext cx="1078626" cy="1800225"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:ln/>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="2">
-                      <a:schemeClr val="accent2"/>
-                    </a:lnRef>
-                    <a:fillRef idx="1">
-                      <a:schemeClr val="lt1"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="accent2"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="dk1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-                      <a:noAutofit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr algn="ctr"/>
-                      <a:endParaRPr lang="en-US" sz="1000" b="0" i="0">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:endParaRPr>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-              </xdr:grpSp>
-              <xdr:pic>
-                <xdr:nvPicPr>
-                  <xdr:cNvPr id="83" name="Picture 82"/>
-                  <xdr:cNvPicPr>
-                    <a:picLocks noChangeAspect="1"/>
-                  </xdr:cNvPicPr>
-                </xdr:nvPicPr>
-                <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
-                    <a:extLst>
-                      <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                        <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                      </a:ext>
-                    </a:extLst>
-                  </a:blip>
-                  <a:stretch>
-                    <a:fillRect/>
-                  </a:stretch>
-                </xdr:blipFill>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="2857501" y="7966983"/>
-                    <a:ext cx="489855" cy="489855"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                </xdr:spPr>
-              </xdr:pic>
-              <xdr:pic>
-                <xdr:nvPicPr>
-                  <xdr:cNvPr id="84" name="Picture 83"/>
-                  <xdr:cNvPicPr>
-                    <a:picLocks noChangeAspect="1"/>
-                  </xdr:cNvPicPr>
-                </xdr:nvPicPr>
-                <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
-                    <a:extLst>
-                      <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                        <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                      </a:ext>
-                    </a:extLst>
-                  </a:blip>
-                  <a:stretch>
-                    <a:fillRect/>
-                  </a:stretch>
-                </xdr:blipFill>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="2354357" y="7429499"/>
-                    <a:ext cx="487458" cy="487458"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                </xdr:spPr>
-              </xdr:pic>
-              <xdr:pic>
-                <xdr:nvPicPr>
-                  <xdr:cNvPr id="85" name="Picture 84"/>
-                  <xdr:cNvPicPr>
-                    <a:picLocks noChangeAspect="1"/>
-                  </xdr:cNvPicPr>
-                </xdr:nvPicPr>
-                <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
-                    <a:extLst>
-                      <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                        <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                      </a:ext>
-                    </a:extLst>
-                  </a:blip>
-                  <a:stretch>
-                    <a:fillRect/>
-                  </a:stretch>
-                </xdr:blipFill>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="1837607" y="6885214"/>
-                    <a:ext cx="521026" cy="509550"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                </xdr:spPr>
-              </xdr:pic>
-            </xdr:grpSp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="81" name="TextBox 80"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="721177" y="11213700"/>
-                  <a:ext cx="928899" cy="394817"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:lnRef>
-                <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="tx1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1200">
-                      <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
-                      <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
-                    </a:rPr>
-                    <a:t>Potential</a:t>
-                  </a:r>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1200" baseline="0">
-                      <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
-                      <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
-                    </a:rPr>
-                    <a:t> Clients</a:t>
-                  </a:r>
-                  <a:endParaRPr lang="en-US" sz="1200">
-                    <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
-                    <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-          </xdr:grpSp>
-        </xdr:grpSp>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="76" name="Picture 75"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="980110" y="10546522"/>
-              <a:ext cx="964364" cy="704022"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="73" name="Picture 72"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3009348" y="13086522"/>
-            <a:ext cx="558810" cy="493776"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="74" name="Picture 73"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2360299" y="13126088"/>
-            <a:ext cx="493776" cy="493776"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>289891</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>147780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>308520</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>26504</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="Picture 103"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4557091" y="11387280"/>
-          <a:ext cx="628229" cy="640724"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>559274</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>179461</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>450417</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>11243</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="105" name="Group 104"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4178774" y="5132461"/>
-          <a:ext cx="5923643" cy="11452282"/>
-          <a:chOff x="4203622" y="5204244"/>
-          <a:chExt cx="5965056" cy="11620695"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="106" name="Group 105"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4203622" y="5204244"/>
-            <a:ext cx="5965056" cy="11620695"/>
-            <a:chOff x="4203622" y="5204244"/>
-            <a:chExt cx="5965056" cy="11620695"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="112" name="Group 111"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="4203622" y="5204244"/>
-              <a:ext cx="5965056" cy="11620695"/>
-              <a:chOff x="4106991" y="4983374"/>
-              <a:chExt cx="5965056" cy="11620695"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="116" name="Group 115"/>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="4106991" y="4983374"/>
-                <a:ext cx="5965056" cy="11620695"/>
-                <a:chOff x="4106991" y="4983374"/>
-                <a:chExt cx="5965056" cy="11620695"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:grpSp>
-              <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="122" name="Group 121"/>
-                <xdr:cNvGrpSpPr/>
-              </xdr:nvGrpSpPr>
-              <xdr:grpSpPr>
-                <a:xfrm>
-                  <a:off x="4106991" y="4983374"/>
-                  <a:ext cx="5965056" cy="11620695"/>
-                  <a:chOff x="4106991" y="4983374"/>
-                  <a:chExt cx="5965056" cy="11620695"/>
-                </a:xfrm>
-              </xdr:grpSpPr>
-              <xdr:grpSp>
-                <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="141" name="Group 140"/>
-                  <xdr:cNvGrpSpPr/>
-                </xdr:nvGrpSpPr>
-                <xdr:grpSpPr>
-                  <a:xfrm>
-                    <a:off x="4106991" y="4983374"/>
-                    <a:ext cx="5965056" cy="11620695"/>
-                    <a:chOff x="4106991" y="4983374"/>
-                    <a:chExt cx="5965056" cy="11620695"/>
-                  </a:xfrm>
-                </xdr:grpSpPr>
-                <xdr:grpSp>
-                  <xdr:nvGrpSpPr>
-                    <xdr:cNvPr id="174" name="Group 173"/>
-                    <xdr:cNvGrpSpPr/>
-                  </xdr:nvGrpSpPr>
-                  <xdr:grpSpPr>
-                    <a:xfrm>
-                      <a:off x="4106991" y="4983374"/>
-                      <a:ext cx="5965056" cy="11620695"/>
-                      <a:chOff x="1238250" y="5396234"/>
-                      <a:chExt cx="3114675" cy="1690366"/>
-                    </a:xfrm>
-                  </xdr:grpSpPr>
-                  <xdr:sp macro="" textlink="">
-                    <xdr:nvSpPr>
-                      <xdr:cNvPr id="176" name="Rectangle 175"/>
-                      <xdr:cNvSpPr/>
-                    </xdr:nvSpPr>
-                    <xdr:spPr>
-                      <a:xfrm>
-                        <a:off x="1238250" y="5396234"/>
-                        <a:ext cx="3114675" cy="1690366"/>
-                      </a:xfrm>
-                      <a:prstGeom prst="rect">
-                        <a:avLst/>
-                      </a:prstGeom>
-                    </xdr:spPr>
-                    <xdr:style>
-                      <a:lnRef idx="2">
-                        <a:schemeClr val="accent5"/>
-                      </a:lnRef>
-                      <a:fillRef idx="1">
-                        <a:schemeClr val="lt1"/>
-                      </a:fillRef>
-                      <a:effectRef idx="0">
-                        <a:schemeClr val="accent5"/>
-                      </a:effectRef>
-                      <a:fontRef idx="minor">
-                        <a:schemeClr val="dk1"/>
-                      </a:fontRef>
-                    </xdr:style>
-                    <xdr:txBody>
-                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                      <a:lstStyle/>
-                      <a:p>
-                        <a:pPr algn="l"/>
-                        <a:endParaRPr lang="en-US" sz="1100"/>
-                      </a:p>
-                    </xdr:txBody>
-                  </xdr:sp>
-                  <xdr:sp macro="" textlink="">
-                    <xdr:nvSpPr>
-                      <xdr:cNvPr id="177" name="TextBox 176"/>
-                      <xdr:cNvSpPr txBox="1"/>
-                    </xdr:nvSpPr>
-                    <xdr:spPr>
-                      <a:xfrm>
-                        <a:off x="1266825" y="5404265"/>
-                        <a:ext cx="599650" cy="638188"/>
-                      </a:xfrm>
-                      <a:prstGeom prst="rect">
-                        <a:avLst/>
-                      </a:prstGeom>
-                      <a:ln/>
-                    </xdr:spPr>
-                    <xdr:style>
-                      <a:lnRef idx="2">
-                        <a:schemeClr val="accent5">
-                          <a:shade val="50000"/>
-                        </a:schemeClr>
-                      </a:lnRef>
-                      <a:fillRef idx="1">
-                        <a:schemeClr val="accent5"/>
-                      </a:fillRef>
-                      <a:effectRef idx="0">
-                        <a:schemeClr val="accent5"/>
-                      </a:effectRef>
-                      <a:fontRef idx="minor">
-                        <a:schemeClr val="lt1"/>
-                      </a:fontRef>
-                    </xdr:style>
-                    <xdr:txBody>
-                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-                        <a:noAutofit/>
-                      </a:bodyPr>
-                      <a:lstStyle/>
-                      <a:p>
-                        <a:pPr algn="ctr"/>
-                        <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:endParaRPr>
-                      </a:p>
-                      <a:p>
-                        <a:pPr algn="ctr"/>
-                        <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:endParaRPr>
-                      </a:p>
-                      <a:p>
-                        <a:pPr algn="ctr"/>
-                        <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:endParaRPr>
-                      </a:p>
-                      <a:p>
-                        <a:pPr algn="ctr"/>
-                        <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:endParaRPr>
-                      </a:p>
-                      <a:p>
-                        <a:pPr algn="ctr"/>
-                        <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:endParaRPr>
-                      </a:p>
-                      <a:p>
-                        <a:pPr algn="ctr"/>
-                        <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:endParaRPr>
-                      </a:p>
-                      <a:p>
-                        <a:pPr algn="ctr"/>
-                        <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
-                          <a:solidFill>
-                            <a:schemeClr val="bg1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:endParaRPr>
-                      </a:p>
-                      <a:p>
-                        <a:pPr algn="ctr"/>
-                        <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
-                          <a:solidFill>
-                            <a:schemeClr val="bg1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:endParaRPr>
-                      </a:p>
-                      <a:p>
-                        <a:pPr algn="ctr"/>
-                        <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
-                          <a:solidFill>
-                            <a:schemeClr val="bg1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:endParaRPr>
-                      </a:p>
-                      <a:p>
-                        <a:pPr algn="ctr"/>
-                        <a:r>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <a:t>Clients</a:t>
-                        </a:r>
-                      </a:p>
-                      <a:p>
-                        <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
-                          <a:solidFill>
-                            <a:schemeClr val="bg1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:endParaRPr>
-                      </a:p>
-                      <a:p>
-                        <a:pPr marL="0" indent="0" algn="ctr"/>
-                        <a:r>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <a:t>Subscribe</a:t>
-                        </a:r>
-                      </a:p>
-                      <a:p>
-                        <a:pPr marL="0" indent="0" algn="ctr"/>
-                        <a:r>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <a:t>Run Analytics and BI Reports</a:t>
-                        </a:r>
-                      </a:p>
-                      <a:p>
-                        <a:pPr marL="0" indent="0" algn="ctr"/>
-                        <a:endParaRPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="bg1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:endParaRPr>
-                      </a:p>
-                      <a:p>
-                        <a:pPr marL="0" indent="0" algn="ctr"/>
-                        <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:endParaRPr>
-                      </a:p>
-                      <a:p>
-                        <a:pPr marL="0" indent="0" algn="ctr"/>
-                        <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:endParaRPr>
-                      </a:p>
-                      <a:p>
-                        <a:pPr marL="0" indent="0" algn="ctr"/>
-                        <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:endParaRPr>
-                      </a:p>
-                      <a:p>
-                        <a:pPr marL="0" indent="0" algn="ctr"/>
-                        <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:endParaRPr>
-                      </a:p>
-                      <a:p>
-                        <a:pPr marL="0" indent="0" algn="ctr"/>
-                        <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:endParaRPr>
-                      </a:p>
-                    </xdr:txBody>
-                  </xdr:sp>
-                </xdr:grpSp>
-                <xdr:pic>
-                  <xdr:nvPicPr>
-                    <xdr:cNvPr id="175" name="Picture 174"/>
-                    <xdr:cNvPicPr>
-                      <a:picLocks noChangeAspect="1"/>
-                    </xdr:cNvPicPr>
-                  </xdr:nvPicPr>
-                  <xdr:blipFill>
-                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
-                      <a:extLst>
-                        <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                          <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                        </a:ext>
-                      </a:extLst>
-                    </a:blip>
-                    <a:stretch>
-                      <a:fillRect/>
-                    </a:stretch>
-                  </xdr:blipFill>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="4418332" y="6470716"/>
-                      <a:ext cx="652657" cy="471468"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </xdr:spPr>
-                </xdr:pic>
-              </xdr:grpSp>
-              <xdr:grpSp>
-                <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="142" name="Group 141"/>
-                  <xdr:cNvGrpSpPr/>
-                </xdr:nvGrpSpPr>
-                <xdr:grpSpPr>
-                  <a:xfrm>
-                    <a:off x="7737729" y="8337433"/>
-                    <a:ext cx="2266279" cy="1061555"/>
-                    <a:chOff x="4789714" y="4449537"/>
-                    <a:chExt cx="3075285" cy="1829994"/>
-                  </a:xfrm>
-                </xdr:grpSpPr>
-                <xdr:grpSp>
-                  <xdr:nvGrpSpPr>
-                    <xdr:cNvPr id="169" name="Group 168"/>
-                    <xdr:cNvGrpSpPr/>
-                  </xdr:nvGrpSpPr>
-                  <xdr:grpSpPr>
-                    <a:xfrm>
-                      <a:off x="4789714" y="4449537"/>
-                      <a:ext cx="3075285" cy="1829994"/>
-                      <a:chOff x="1238250" y="5229225"/>
-                      <a:chExt cx="3114675" cy="1857375"/>
-                    </a:xfrm>
-                  </xdr:grpSpPr>
-                  <xdr:sp macro="" textlink="">
-                    <xdr:nvSpPr>
-                      <xdr:cNvPr id="172" name="Rectangle 171"/>
-                      <xdr:cNvSpPr/>
-                    </xdr:nvSpPr>
-                    <xdr:spPr>
-                      <a:xfrm>
-                        <a:off x="1238250" y="5229225"/>
-                        <a:ext cx="3114675" cy="1857375"/>
-                      </a:xfrm>
-                      <a:prstGeom prst="rect">
-                        <a:avLst/>
-                      </a:prstGeom>
-                    </xdr:spPr>
-                    <xdr:style>
-                      <a:lnRef idx="2">
-                        <a:schemeClr val="accent5"/>
-                      </a:lnRef>
-                      <a:fillRef idx="1">
-                        <a:schemeClr val="lt1"/>
-                      </a:fillRef>
-                      <a:effectRef idx="0">
-                        <a:schemeClr val="accent5"/>
-                      </a:effectRef>
-                      <a:fontRef idx="minor">
-                        <a:schemeClr val="dk1"/>
-                      </a:fontRef>
-                    </xdr:style>
-                    <xdr:txBody>
-                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                      <a:lstStyle/>
-                      <a:p>
-                        <a:pPr algn="l"/>
-                        <a:endParaRPr lang="en-US" sz="1100"/>
-                      </a:p>
-                    </xdr:txBody>
-                  </xdr:sp>
-                  <xdr:sp macro="" textlink="">
-                    <xdr:nvSpPr>
-                      <xdr:cNvPr id="173" name="TextBox 172"/>
-                      <xdr:cNvSpPr txBox="1"/>
-                    </xdr:nvSpPr>
-                    <xdr:spPr>
-                      <a:xfrm>
-                        <a:off x="1248285" y="5257800"/>
-                        <a:ext cx="1191606" cy="1800226"/>
-                      </a:xfrm>
-                      <a:prstGeom prst="rect">
-                        <a:avLst/>
-                      </a:prstGeom>
-                      <a:ln/>
-                    </xdr:spPr>
-                    <xdr:style>
-                      <a:lnRef idx="2">
-                        <a:schemeClr val="accent5">
-                          <a:shade val="50000"/>
-                        </a:schemeClr>
-                      </a:lnRef>
-                      <a:fillRef idx="1">
-                        <a:schemeClr val="accent5"/>
-                      </a:fillRef>
-                      <a:effectRef idx="0">
-                        <a:schemeClr val="accent5"/>
-                      </a:effectRef>
-                      <a:fontRef idx="minor">
-                        <a:schemeClr val="lt1"/>
-                      </a:fontRef>
-                    </xdr:style>
-                    <xdr:txBody>
-                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-                        <a:noAutofit/>
-                      </a:bodyPr>
-                      <a:lstStyle/>
-                      <a:p>
-                        <a:pPr marL="0" indent="0" algn="ctr"/>
-                        <a:r>
-                          <a:rPr lang="en-US" sz="1000" b="1" i="0">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <a:t>Analytics</a:t>
-                        </a:r>
-                        <a:r>
-                          <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <a:t> Visualization</a:t>
-                        </a:r>
-                        <a:endParaRPr lang="en-US" sz="1000" b="0" i="0">
-                          <a:solidFill>
-                            <a:schemeClr val="bg1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:endParaRPr>
-                      </a:p>
-                    </xdr:txBody>
-                  </xdr:sp>
-                </xdr:grpSp>
-                <xdr:pic>
-                  <xdr:nvPicPr>
-                    <xdr:cNvPr id="170" name="Picture 169"/>
-                    <xdr:cNvPicPr>
-                      <a:picLocks noChangeAspect="1"/>
-                    </xdr:cNvPicPr>
-                  </xdr:nvPicPr>
-                  <xdr:blipFill>
-                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
-                      <a:extLst>
-                        <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                          <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                        </a:ext>
-                      </a:extLst>
-                    </a:blip>
-                    <a:stretch>
-                      <a:fillRect/>
-                    </a:stretch>
-                  </xdr:blipFill>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="6564198" y="5313919"/>
-                      <a:ext cx="884990" cy="618029"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </xdr:spPr>
-                </xdr:pic>
-                <xdr:pic>
-                  <xdr:nvPicPr>
-                    <xdr:cNvPr id="171" name="Picture 170"/>
-                    <xdr:cNvPicPr>
-                      <a:picLocks noChangeAspect="1"/>
-                    </xdr:cNvPicPr>
-                  </xdr:nvPicPr>
-                  <xdr:blipFill>
-                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
-                      <a:extLst>
-                        <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                          <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                        </a:ext>
-                      </a:extLst>
-                    </a:blip>
-                    <a:stretch>
-                      <a:fillRect/>
-                    </a:stretch>
-                  </xdr:blipFill>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="6095616" y="4679517"/>
-                      <a:ext cx="1615510" cy="448076"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </xdr:spPr>
-                </xdr:pic>
-              </xdr:grpSp>
-              <xdr:grpSp>
-                <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="143" name="Group 142"/>
-                  <xdr:cNvGrpSpPr/>
-                </xdr:nvGrpSpPr>
-                <xdr:grpSpPr>
-                  <a:xfrm>
-                    <a:off x="5406137" y="5026747"/>
-                    <a:ext cx="2266280" cy="1061560"/>
-                    <a:chOff x="5309508" y="6154560"/>
-                    <a:chExt cx="2286000" cy="1047748"/>
-                  </a:xfrm>
-                </xdr:grpSpPr>
-                <xdr:grpSp>
-                  <xdr:nvGrpSpPr>
-                    <xdr:cNvPr id="165" name="Group 164"/>
-                    <xdr:cNvGrpSpPr/>
-                  </xdr:nvGrpSpPr>
-                  <xdr:grpSpPr>
-                    <a:xfrm>
-                      <a:off x="5309508" y="6154560"/>
-                      <a:ext cx="2286000" cy="1047748"/>
-                      <a:chOff x="1238250" y="7161460"/>
-                      <a:chExt cx="3114675" cy="1857372"/>
-                    </a:xfrm>
-                  </xdr:grpSpPr>
-                  <xdr:sp macro="" textlink="">
-                    <xdr:nvSpPr>
-                      <xdr:cNvPr id="167" name="Rectangle 166"/>
-                      <xdr:cNvSpPr/>
-                    </xdr:nvSpPr>
-                    <xdr:spPr>
-                      <a:xfrm>
-                        <a:off x="1238250" y="7161460"/>
-                        <a:ext cx="3114675" cy="1857372"/>
-                      </a:xfrm>
-                      <a:prstGeom prst="rect">
-                        <a:avLst/>
-                      </a:prstGeom>
-                    </xdr:spPr>
-                    <xdr:style>
-                      <a:lnRef idx="2">
-                        <a:schemeClr val="accent5"/>
-                      </a:lnRef>
-                      <a:fillRef idx="1">
-                        <a:schemeClr val="lt1"/>
-                      </a:fillRef>
-                      <a:effectRef idx="0">
-                        <a:schemeClr val="accent5"/>
-                      </a:effectRef>
-                      <a:fontRef idx="minor">
-                        <a:schemeClr val="dk1"/>
-                      </a:fontRef>
-                    </xdr:style>
-                    <xdr:txBody>
-                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                      <a:lstStyle/>
-                      <a:p>
-                        <a:pPr algn="l"/>
-                        <a:endParaRPr lang="en-US" sz="1100"/>
-                      </a:p>
-                    </xdr:txBody>
-                  </xdr:sp>
-                  <xdr:sp macro="" textlink="">
-                    <xdr:nvSpPr>
-                      <xdr:cNvPr id="168" name="TextBox 167"/>
-                      <xdr:cNvSpPr txBox="1"/>
-                    </xdr:nvSpPr>
-                    <xdr:spPr>
-                      <a:xfrm>
-                        <a:off x="1248286" y="7190014"/>
-                        <a:ext cx="1191606" cy="1800226"/>
-                      </a:xfrm>
-                      <a:prstGeom prst="rect">
-                        <a:avLst/>
-                      </a:prstGeom>
-                      <a:ln/>
-                    </xdr:spPr>
-                    <xdr:style>
-                      <a:lnRef idx="2">
-                        <a:schemeClr val="accent5">
-                          <a:shade val="50000"/>
-                        </a:schemeClr>
-                      </a:lnRef>
-                      <a:fillRef idx="1">
-                        <a:schemeClr val="accent5"/>
-                      </a:fillRef>
-                      <a:effectRef idx="0">
-                        <a:schemeClr val="accent5"/>
-                      </a:effectRef>
-                      <a:fontRef idx="minor">
-                        <a:schemeClr val="lt1"/>
-                      </a:fontRef>
-                    </xdr:style>
-                    <xdr:txBody>
-                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-                        <a:noAutofit/>
-                      </a:bodyPr>
-                      <a:lstStyle/>
-                      <a:p>
-                        <a:pPr marL="0" indent="0" algn="ctr"/>
-                        <a:r>
-                          <a:rPr lang="en-US" sz="1000" b="1" i="0">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <a:t>Subscription </a:t>
-                        </a:r>
-                      </a:p>
-                    </xdr:txBody>
-                  </xdr:sp>
-                </xdr:grpSp>
-                <xdr:pic>
-                  <xdr:nvPicPr>
-                    <xdr:cNvPr id="166" name="Picture 165"/>
-                    <xdr:cNvPicPr>
-                      <a:picLocks noChangeAspect="1"/>
-                    </xdr:cNvPicPr>
-                  </xdr:nvPicPr>
-                  <xdr:blipFill>
-                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
-                      <a:extLst>
-                        <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                          <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                        </a:ext>
-                      </a:extLst>
-                    </a:blip>
-                    <a:stretch>
-                      <a:fillRect/>
-                    </a:stretch>
-                  </xdr:blipFill>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="6421351" y="6343412"/>
-                      <a:ext cx="1001351" cy="667567"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </xdr:spPr>
-                </xdr:pic>
-              </xdr:grpSp>
-              <xdr:grpSp>
-                <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="144" name="Group 143"/>
-                  <xdr:cNvGrpSpPr/>
-                </xdr:nvGrpSpPr>
-                <xdr:grpSpPr>
-                  <a:xfrm>
-                    <a:off x="5408858" y="8351037"/>
-                    <a:ext cx="2266280" cy="1066999"/>
-                    <a:chOff x="5298623" y="6164035"/>
-                    <a:chExt cx="2286000" cy="1053194"/>
-                  </a:xfrm>
-                </xdr:grpSpPr>
-                <xdr:grpSp>
-                  <xdr:nvGrpSpPr>
-                    <xdr:cNvPr id="160" name="Group 159"/>
-                    <xdr:cNvGrpSpPr/>
-                  </xdr:nvGrpSpPr>
-                  <xdr:grpSpPr>
-                    <a:xfrm>
-                      <a:off x="5298623" y="6164035"/>
-                      <a:ext cx="2286000" cy="1053194"/>
-                      <a:chOff x="1238250" y="5219574"/>
-                      <a:chExt cx="3114675" cy="1867026"/>
-                    </a:xfrm>
-                  </xdr:grpSpPr>
-                  <xdr:sp macro="" textlink="">
-                    <xdr:nvSpPr>
-                      <xdr:cNvPr id="163" name="Rectangle 162"/>
-                      <xdr:cNvSpPr/>
-                    </xdr:nvSpPr>
-                    <xdr:spPr>
-                      <a:xfrm>
-                        <a:off x="1238250" y="5229225"/>
-                        <a:ext cx="3114675" cy="1857375"/>
-                      </a:xfrm>
-                      <a:prstGeom prst="rect">
-                        <a:avLst/>
-                      </a:prstGeom>
-                    </xdr:spPr>
-                    <xdr:style>
-                      <a:lnRef idx="2">
-                        <a:schemeClr val="accent5"/>
-                      </a:lnRef>
-                      <a:fillRef idx="1">
-                        <a:schemeClr val="lt1"/>
-                      </a:fillRef>
-                      <a:effectRef idx="0">
-                        <a:schemeClr val="accent5"/>
-                      </a:effectRef>
-                      <a:fontRef idx="minor">
-                        <a:schemeClr val="dk1"/>
-                      </a:fontRef>
-                    </xdr:style>
-                    <xdr:txBody>
-                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                      <a:lstStyle/>
-                      <a:p>
-                        <a:pPr algn="l"/>
-                        <a:endParaRPr lang="en-US" sz="1100"/>
-                      </a:p>
-                    </xdr:txBody>
-                  </xdr:sp>
-                  <xdr:sp macro="" textlink="">
-                    <xdr:nvSpPr>
-                      <xdr:cNvPr id="164" name="TextBox 163"/>
-                      <xdr:cNvSpPr txBox="1"/>
-                    </xdr:nvSpPr>
-                    <xdr:spPr>
-                      <a:xfrm>
-                        <a:off x="1248285" y="5219574"/>
-                        <a:ext cx="1191606" cy="1838451"/>
-                      </a:xfrm>
-                      <a:prstGeom prst="rect">
-                        <a:avLst/>
-                      </a:prstGeom>
-                      <a:ln/>
-                    </xdr:spPr>
-                    <xdr:style>
-                      <a:lnRef idx="2">
-                        <a:schemeClr val="accent5">
-                          <a:shade val="50000"/>
-                        </a:schemeClr>
-                      </a:lnRef>
-                      <a:fillRef idx="1">
-                        <a:schemeClr val="accent5"/>
-                      </a:fillRef>
-                      <a:effectRef idx="0">
-                        <a:schemeClr val="accent5"/>
-                      </a:effectRef>
-                      <a:fontRef idx="minor">
-                        <a:schemeClr val="lt1"/>
-                      </a:fontRef>
-                    </xdr:style>
-                    <xdr:txBody>
-                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-                        <a:noAutofit/>
-                      </a:bodyPr>
-                      <a:lstStyle/>
-                      <a:p>
-                        <a:pPr marL="0" indent="0" algn="ctr"/>
-                        <a:r>
-                          <a:rPr lang="en-US" sz="1000" b="1" i="0">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <a:t>Business Intelligence </a:t>
-                        </a:r>
-                      </a:p>
-                    </xdr:txBody>
-                  </xdr:sp>
-                </xdr:grpSp>
-                <xdr:pic>
-                  <xdr:nvPicPr>
-                    <xdr:cNvPr id="161" name="Picture 160"/>
-                    <xdr:cNvPicPr>
-                      <a:picLocks noChangeAspect="1"/>
-                    </xdr:cNvPicPr>
-                  </xdr:nvPicPr>
-                  <xdr:blipFill>
-                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-                      <a:extLst>
-                        <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                          <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                        </a:ext>
-                      </a:extLst>
-                    </a:blip>
-                    <a:stretch>
-                      <a:fillRect/>
-                    </a:stretch>
-                  </xdr:blipFill>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="6311686" y="6250749"/>
-                      <a:ext cx="1076109" cy="375136"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </xdr:spPr>
-                </xdr:pic>
-                <xdr:pic>
-                  <xdr:nvPicPr>
-                    <xdr:cNvPr id="162" name="Picture 161"/>
-                    <xdr:cNvPicPr>
-                      <a:picLocks noChangeAspect="1"/>
-                    </xdr:cNvPicPr>
-                  </xdr:nvPicPr>
-                  <xdr:blipFill>
-                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
-                      <a:extLst>
-                        <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                          <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                        </a:ext>
-                      </a:extLst>
-                    </a:blip>
-                    <a:stretch>
-                      <a:fillRect/>
-                    </a:stretch>
-                  </xdr:blipFill>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="6506935" y="6653893"/>
-                      <a:ext cx="718458" cy="449036"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </xdr:spPr>
-                </xdr:pic>
-              </xdr:grpSp>
-              <xdr:grpSp>
-                <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="145" name="Group 144"/>
-                  <xdr:cNvGrpSpPr/>
-                </xdr:nvGrpSpPr>
-                <xdr:grpSpPr>
-                  <a:xfrm>
-                    <a:off x="5411578" y="7226852"/>
-                    <a:ext cx="2266280" cy="1061555"/>
-                    <a:chOff x="1238250" y="5229225"/>
-                    <a:chExt cx="3114675" cy="1857375"/>
-                  </a:xfrm>
-                </xdr:grpSpPr>
-                <xdr:sp macro="" textlink="">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="158" name="Rectangle 157"/>
-                    <xdr:cNvSpPr/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="1238250" y="5229225"/>
-                      <a:ext cx="3114675" cy="1857375"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="2">
-                      <a:schemeClr val="accent5"/>
-                    </a:lnRef>
-                    <a:fillRef idx="1">
-                      <a:schemeClr val="lt1"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="accent5"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="dk1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr algn="l"/>
-                      <a:endParaRPr lang="en-US" sz="1100"/>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-                <xdr:sp macro="" textlink="">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="159" name="TextBox 158"/>
-                    <xdr:cNvSpPr txBox="1"/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="1266825" y="5257800"/>
-                      <a:ext cx="1191606" cy="1800226"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:ln/>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="2">
-                      <a:schemeClr val="accent5">
-                        <a:shade val="50000"/>
-                      </a:schemeClr>
-                    </a:lnRef>
-                    <a:fillRef idx="1">
-                      <a:schemeClr val="accent5"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="accent5"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="lt1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-                      <a:noAutofit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr marL="0" indent="0" algn="ctr"/>
-                      <a:r>
-                        <a:rPr lang="en-US" sz="1000" b="1" i="0">
-                          <a:solidFill>
-                            <a:schemeClr val="bg1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <a:t>ETL Status Reports</a:t>
-                      </a:r>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-              </xdr:grpSp>
-              <xdr:grpSp>
-                <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="146" name="Group 145"/>
-                  <xdr:cNvGrpSpPr/>
-                </xdr:nvGrpSpPr>
-                <xdr:grpSpPr>
-                  <a:xfrm>
-                    <a:off x="5414301" y="6123636"/>
-                    <a:ext cx="2266280" cy="1064315"/>
-                    <a:chOff x="1238250" y="7156435"/>
-                    <a:chExt cx="3114675" cy="1857375"/>
-                  </a:xfrm>
-                </xdr:grpSpPr>
-                <xdr:sp macro="" textlink="">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="156" name="Rectangle 155"/>
-                    <xdr:cNvSpPr/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="1238250" y="7156435"/>
-                      <a:ext cx="3114675" cy="1857375"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="2">
-                      <a:schemeClr val="accent5"/>
-                    </a:lnRef>
-                    <a:fillRef idx="1">
-                      <a:schemeClr val="lt1"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="accent5"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="dk1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr algn="l"/>
-                      <a:endParaRPr lang="en-US" sz="1100"/>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-                <xdr:sp macro="" textlink="">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="157" name="TextBox 156"/>
-                    <xdr:cNvSpPr txBox="1"/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="1266826" y="7185013"/>
-                      <a:ext cx="1191606" cy="1800225"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:ln/>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="2">
-                      <a:schemeClr val="accent5">
-                        <a:shade val="50000"/>
-                      </a:schemeClr>
-                    </a:lnRef>
-                    <a:fillRef idx="1">
-                      <a:schemeClr val="accent5"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="accent5"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="lt1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-                      <a:noAutofit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr marL="0" indent="0" algn="ctr"/>
-                      <a:r>
-                        <a:rPr lang="en-US" sz="1000" b="1" i="0">
-                          <a:solidFill>
-                            <a:schemeClr val="bg1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <a:t>Service Request and Incident Mgmt.</a:t>
-                      </a:r>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-              </xdr:grpSp>
-              <xdr:grpSp>
-                <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="147" name="Group 146"/>
-                  <xdr:cNvGrpSpPr/>
-                </xdr:nvGrpSpPr>
-                <xdr:grpSpPr>
-                  <a:xfrm>
-                    <a:off x="7724125" y="5023997"/>
-                    <a:ext cx="2266279" cy="1061555"/>
-                    <a:chOff x="1238250" y="7161478"/>
-                    <a:chExt cx="3114675" cy="1857375"/>
-                  </a:xfrm>
-                </xdr:grpSpPr>
-                <xdr:sp macro="" textlink="">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="154" name="Rectangle 153"/>
-                    <xdr:cNvSpPr/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="1238250" y="7161478"/>
-                      <a:ext cx="3114675" cy="1857375"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="2">
-                      <a:schemeClr val="accent5"/>
-                    </a:lnRef>
-                    <a:fillRef idx="1">
-                      <a:schemeClr val="lt1"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="accent5"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="dk1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr algn="l"/>
-                      <a:endParaRPr lang="en-US" sz="1100"/>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-                <xdr:sp macro="" textlink="">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="155" name="TextBox 154"/>
-                    <xdr:cNvSpPr txBox="1"/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="1248286" y="7190023"/>
-                      <a:ext cx="1191605" cy="1800225"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:ln/>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="2">
-                      <a:schemeClr val="accent5">
-                        <a:shade val="50000"/>
-                      </a:schemeClr>
-                    </a:lnRef>
-                    <a:fillRef idx="1">
-                      <a:schemeClr val="accent5"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="accent5"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="lt1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-                      <a:noAutofit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr marL="0" indent="0" algn="ctr"/>
-                      <a:r>
-                        <a:rPr lang="en-US" sz="1000" b="1" i="0">
-                          <a:solidFill>
-                            <a:schemeClr val="bg1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <a:t>App Store</a:t>
-                      </a:r>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-              </xdr:grpSp>
-              <xdr:grpSp>
-                <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="148" name="Group 147"/>
-                  <xdr:cNvGrpSpPr/>
-                </xdr:nvGrpSpPr>
-                <xdr:grpSpPr>
-                  <a:xfrm>
-                    <a:off x="7724124" y="6129117"/>
-                    <a:ext cx="2266279" cy="1061554"/>
-                    <a:chOff x="1238250" y="7161472"/>
-                    <a:chExt cx="3114675" cy="1857375"/>
-                  </a:xfrm>
-                </xdr:grpSpPr>
-                <xdr:sp macro="" textlink="">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="152" name="Rectangle 151"/>
-                    <xdr:cNvSpPr/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="1238250" y="7161472"/>
-                      <a:ext cx="3114675" cy="1857375"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="2">
-                      <a:schemeClr val="accent5"/>
-                    </a:lnRef>
-                    <a:fillRef idx="1">
-                      <a:schemeClr val="lt1"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="accent5"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="dk1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr algn="l"/>
-                      <a:endParaRPr lang="en-US" sz="1100"/>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-                <xdr:sp macro="" textlink="">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="153" name="TextBox 152"/>
-                    <xdr:cNvSpPr txBox="1"/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="1248286" y="7190048"/>
-                      <a:ext cx="1191605" cy="1800225"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:ln/>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="2">
-                      <a:schemeClr val="accent5">
-                        <a:shade val="50000"/>
-                      </a:schemeClr>
-                    </a:lnRef>
-                    <a:fillRef idx="1">
-                      <a:schemeClr val="accent5"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="accent5"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="lt1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-                      <a:noAutofit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr marL="0" indent="0" algn="ctr"/>
-                      <a:r>
-                        <a:rPr lang="en-US" sz="1000" b="1" i="0">
-                          <a:solidFill>
-                            <a:schemeClr val="bg1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <a:t>Customer</a:t>
-                      </a:r>
-                      <a:r>
-                        <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="bg1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <a:t> forum and Knowlege Mgmt.</a:t>
-                      </a:r>
-                      <a:endParaRPr lang="en-US" sz="1000" b="1" i="0">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:endParaRPr>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-              </xdr:grpSp>
-              <xdr:grpSp>
-                <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="149" name="Group 148"/>
-                  <xdr:cNvGrpSpPr/>
-                </xdr:nvGrpSpPr>
-                <xdr:grpSpPr>
-                  <a:xfrm>
-                    <a:off x="7726845" y="7235018"/>
-                    <a:ext cx="2266279" cy="1061555"/>
-                    <a:chOff x="1238250" y="5229225"/>
-                    <a:chExt cx="3114675" cy="1857375"/>
-                  </a:xfrm>
-                </xdr:grpSpPr>
-                <xdr:sp macro="" textlink="">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="150" name="Rectangle 149"/>
-                    <xdr:cNvSpPr/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="1238250" y="5229225"/>
-                      <a:ext cx="3114675" cy="1857375"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="2">
-                      <a:schemeClr val="accent5"/>
-                    </a:lnRef>
-                    <a:fillRef idx="1">
-                      <a:schemeClr val="lt1"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="accent5"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="dk1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr algn="l"/>
-                      <a:endParaRPr lang="en-US" sz="1100"/>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-                <xdr:sp macro="" textlink="">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="151" name="TextBox 150"/>
-                    <xdr:cNvSpPr txBox="1"/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="1248285" y="5257800"/>
-                      <a:ext cx="1191606" cy="1800226"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:ln/>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="2">
-                      <a:schemeClr val="accent5">
-                        <a:shade val="50000"/>
-                      </a:schemeClr>
-                    </a:lnRef>
-                    <a:fillRef idx="1">
-                      <a:schemeClr val="accent5"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="accent5"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="lt1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-                      <a:noAutofit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr marL="0" indent="0" algn="ctr"/>
-                      <a:r>
-                        <a:rPr lang="en-US" sz="1000" b="1" i="0">
-                          <a:solidFill>
-                            <a:schemeClr val="bg1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <a:t>Service Level</a:t>
-                      </a:r>
-                      <a:r>
-                        <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="bg1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <a:t> </a:t>
-                      </a:r>
-                      <a:r>
-                        <a:rPr lang="en-US" sz="1000" b="1" i="0">
-                          <a:solidFill>
-                            <a:schemeClr val="bg1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <a:t>Mgmt.</a:t>
-                      </a:r>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-              </xdr:grpSp>
-            </xdr:grpSp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="123" name="TextBox 122"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="4191355" y="11059414"/>
-                  <a:ext cx="1148049" cy="1584186"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:ln/>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="50000"/>
-                  </a:schemeClr>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="accent1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="accent1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="lt1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:endParaRPr>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:endParaRPr>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:endParaRPr>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <a:t>Technical Team</a:t>
-                  </a:r>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:grpSp>
-              <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="124" name="Group 123"/>
-                <xdr:cNvGrpSpPr/>
-              </xdr:nvGrpSpPr>
-              <xdr:grpSpPr>
-                <a:xfrm>
-                  <a:off x="4175026" y="12695703"/>
-                  <a:ext cx="5815378" cy="1887667"/>
-                  <a:chOff x="4204607" y="12516246"/>
-                  <a:chExt cx="5864679" cy="1860059"/>
-                </a:xfrm>
-              </xdr:grpSpPr>
-              <xdr:grpSp>
-                <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="134" name="Group 133"/>
-                  <xdr:cNvGrpSpPr/>
-                </xdr:nvGrpSpPr>
-                <xdr:grpSpPr>
-                  <a:xfrm>
-                    <a:off x="4204607" y="12516246"/>
-                    <a:ext cx="5864679" cy="1860059"/>
-                    <a:chOff x="2133600" y="4219575"/>
-                    <a:chExt cx="3114675" cy="1857375"/>
-                  </a:xfrm>
-                </xdr:grpSpPr>
-                <xdr:sp macro="" textlink="">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="139" name="Rectangle 138"/>
-                    <xdr:cNvSpPr/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="2133600" y="4219575"/>
-                      <a:ext cx="3114675" cy="1857375"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="2">
-                      <a:schemeClr val="accent5"/>
-                    </a:lnRef>
-                    <a:fillRef idx="1">
-                      <a:schemeClr val="lt1"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="accent5"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="dk1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr algn="l"/>
-                      <a:endParaRPr lang="en-US" sz="1100"/>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-                <xdr:sp macro="" textlink="">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="140" name="TextBox 139"/>
-                    <xdr:cNvSpPr txBox="1"/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="2162175" y="4248150"/>
-                      <a:ext cx="1095375" cy="1800225"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:solidFill>
-                        <a:schemeClr val="tx2"/>
-                      </a:solidFill>
-                    </a:ln>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="0">
-                      <a:scrgbClr r="0" g="0" b="0"/>
-                    </a:lnRef>
-                    <a:fillRef idx="0">
-                      <a:scrgbClr r="0" g="0" b="0"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:scrgbClr r="0" g="0" b="0"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="tx1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-                      <a:noAutofit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr algn="ctr"/>
-                      <a:r>
-                        <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <a:t>Powered</a:t>
-                      </a:r>
-                      <a:r>
-                        <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <a:t> By</a:t>
-                      </a:r>
-                    </a:p>
-                    <a:p>
-                      <a:pPr algn="ctr"/>
-                      <a:endParaRPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:endParaRPr>
-                    </a:p>
-                    <a:p>
-                      <a:pPr algn="ctr"/>
-                      <a:r>
-                        <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <a:t>Portal</a:t>
-                      </a:r>
-                      <a:r>
-                        <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <a:t> Technology</a:t>
-                      </a:r>
-                      <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:endParaRPr>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-              </xdr:grpSp>
-              <xdr:pic>
-                <xdr:nvPicPr>
-                  <xdr:cNvPr id="135" name="Picture 134"/>
-                  <xdr:cNvPicPr>
-                    <a:picLocks noChangeAspect="1"/>
-                  </xdr:cNvPicPr>
-                </xdr:nvPicPr>
-                <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
-                    <a:extLst>
-                      <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                        <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                      </a:ext>
-                    </a:extLst>
-                  </a:blip>
-                  <a:stretch>
-                    <a:fillRect/>
-                  </a:stretch>
-                </xdr:blipFill>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="6545036" y="12813660"/>
-                    <a:ext cx="2016214" cy="540292"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                </xdr:spPr>
-              </xdr:pic>
-              <xdr:pic>
-                <xdr:nvPicPr>
-                  <xdr:cNvPr id="136" name="Picture 135"/>
-                  <xdr:cNvPicPr>
-                    <a:picLocks noChangeAspect="1"/>
-                  </xdr:cNvPicPr>
-                </xdr:nvPicPr>
-                <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
-                    <a:extLst>
-                      <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                        <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                      </a:ext>
-                    </a:extLst>
-                  </a:blip>
-                  <a:stretch>
-                    <a:fillRect/>
-                  </a:stretch>
-                </xdr:blipFill>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="6817179" y="13539108"/>
-                    <a:ext cx="1267150" cy="668432"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                </xdr:spPr>
-              </xdr:pic>
-              <xdr:pic>
-                <xdr:nvPicPr>
-                  <xdr:cNvPr id="137" name="Picture 136"/>
-                  <xdr:cNvPicPr>
-                    <a:picLocks noChangeAspect="1"/>
-                  </xdr:cNvPicPr>
-                </xdr:nvPicPr>
-                <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
-                    <a:extLst>
-                      <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                        <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                      </a:ext>
-                    </a:extLst>
-                  </a:blip>
-                  <a:stretch>
-                    <a:fillRect/>
-                  </a:stretch>
-                </xdr:blipFill>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="8749393" y="12600213"/>
-                    <a:ext cx="1034143" cy="1034143"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                </xdr:spPr>
-              </xdr:pic>
-              <xdr:pic>
-                <xdr:nvPicPr>
-                  <xdr:cNvPr id="138" name="Picture 137"/>
-                  <xdr:cNvPicPr>
-                    <a:picLocks noChangeAspect="1"/>
-                  </xdr:cNvPicPr>
-                </xdr:nvPicPr>
-                <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-                    <a:extLst>
-                      <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                        <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                      </a:ext>
-                    </a:extLst>
-                  </a:blip>
-                  <a:stretch>
-                    <a:fillRect/>
-                  </a:stretch>
-                </xdr:blipFill>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="8355107" y="13515000"/>
-                    <a:ext cx="1523679" cy="733360"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                </xdr:spPr>
-              </xdr:pic>
-            </xdr:grpSp>
-            <xdr:grpSp>
-              <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="125" name="Group 124"/>
-                <xdr:cNvGrpSpPr/>
-              </xdr:nvGrpSpPr>
-              <xdr:grpSpPr>
-                <a:xfrm>
-                  <a:off x="4175027" y="9483390"/>
-                  <a:ext cx="5804490" cy="1532480"/>
-                  <a:chOff x="4175027" y="9483390"/>
-                  <a:chExt cx="5804490" cy="1532480"/>
-                </a:xfrm>
-              </xdr:grpSpPr>
-              <xdr:grpSp>
-                <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="126" name="Group 125"/>
-                  <xdr:cNvGrpSpPr/>
-                </xdr:nvGrpSpPr>
-                <xdr:grpSpPr>
-                  <a:xfrm>
-                    <a:off x="5403417" y="9567754"/>
-                    <a:ext cx="4576100" cy="1448116"/>
-                    <a:chOff x="5442858" y="9432471"/>
-                    <a:chExt cx="4615541" cy="1426029"/>
-                  </a:xfrm>
-                </xdr:grpSpPr>
-                <xdr:grpSp>
-                  <xdr:nvGrpSpPr>
-                    <xdr:cNvPr id="130" name="Group 129"/>
-                    <xdr:cNvGrpSpPr/>
-                  </xdr:nvGrpSpPr>
-                  <xdr:grpSpPr>
-                    <a:xfrm>
-                      <a:off x="5442858" y="9432471"/>
-                      <a:ext cx="4615541" cy="1426029"/>
-                      <a:chOff x="1238250" y="5229225"/>
-                      <a:chExt cx="3114675" cy="1857375"/>
-                    </a:xfrm>
-                  </xdr:grpSpPr>
-                  <xdr:sp macro="" textlink="">
-                    <xdr:nvSpPr>
-                      <xdr:cNvPr id="132" name="Rectangle 131"/>
-                      <xdr:cNvSpPr/>
-                    </xdr:nvSpPr>
-                    <xdr:spPr>
-                      <a:xfrm>
-                        <a:off x="1238250" y="5229225"/>
-                        <a:ext cx="3114675" cy="1857375"/>
-                      </a:xfrm>
-                      <a:prstGeom prst="rect">
-                        <a:avLst/>
-                      </a:prstGeom>
-                    </xdr:spPr>
-                    <xdr:style>
-                      <a:lnRef idx="2">
-                        <a:schemeClr val="accent5"/>
-                      </a:lnRef>
-                      <a:fillRef idx="1">
-                        <a:schemeClr val="lt1"/>
-                      </a:fillRef>
-                      <a:effectRef idx="0">
-                        <a:schemeClr val="accent5"/>
-                      </a:effectRef>
-                      <a:fontRef idx="minor">
-                        <a:schemeClr val="dk1"/>
-                      </a:fontRef>
-                    </xdr:style>
-                    <xdr:txBody>
-                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                      <a:lstStyle/>
-                      <a:p>
-                        <a:pPr algn="l"/>
-                        <a:endParaRPr lang="en-US" sz="1100"/>
-                      </a:p>
-                    </xdr:txBody>
-                  </xdr:sp>
-                  <xdr:sp macro="" textlink="">
-                    <xdr:nvSpPr>
-                      <xdr:cNvPr id="133" name="TextBox 132"/>
-                      <xdr:cNvSpPr txBox="1"/>
-                    </xdr:nvSpPr>
-                    <xdr:spPr>
-                      <a:xfrm>
-                        <a:off x="1248459" y="5257800"/>
-                        <a:ext cx="1191606" cy="1800226"/>
-                      </a:xfrm>
-                      <a:prstGeom prst="rect">
-                        <a:avLst/>
-                      </a:prstGeom>
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:ln/>
-                    </xdr:spPr>
-                    <xdr:style>
-                      <a:lnRef idx="2">
-                        <a:schemeClr val="accent1">
-                          <a:shade val="50000"/>
-                        </a:schemeClr>
-                      </a:lnRef>
-                      <a:fillRef idx="1">
-                        <a:schemeClr val="accent1"/>
-                      </a:fillRef>
-                      <a:effectRef idx="0">
-                        <a:schemeClr val="accent1"/>
-                      </a:effectRef>
-                      <a:fontRef idx="minor">
-                        <a:schemeClr val="lt1"/>
-                      </a:fontRef>
-                    </xdr:style>
-                    <xdr:txBody>
-                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-                        <a:noAutofit/>
-                      </a:bodyPr>
-                      <a:lstStyle/>
-                      <a:p>
-                        <a:pPr marL="0" indent="0" algn="ctr"/>
-                        <a:r>
-                          <a:rPr lang="en-US" sz="1000" b="1" i="0">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <a:t>Analytics as a</a:t>
-                        </a:r>
-                        <a:r>
-                          <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <a:t> Service</a:t>
-                        </a:r>
-                      </a:p>
-                      <a:p>
-                        <a:pPr marL="0" indent="0" algn="ctr"/>
-                        <a:r>
-                          <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <a:t>Offerings, Pricing and etc..</a:t>
-                        </a:r>
-                        <a:endParaRPr lang="en-US" sz="1000" b="1" i="0">
-                          <a:solidFill>
-                            <a:schemeClr val="bg1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:endParaRPr>
-                      </a:p>
-                    </xdr:txBody>
-                  </xdr:sp>
-                </xdr:grpSp>
-                <xdr:pic>
-                  <xdr:nvPicPr>
-                    <xdr:cNvPr id="131" name="Picture 130"/>
-                    <xdr:cNvPicPr>
-                      <a:picLocks noChangeAspect="1"/>
-                    </xdr:cNvPicPr>
-                  </xdr:nvPicPr>
-                  <xdr:blipFill>
-                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
-                      <a:extLst>
-                        <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                          <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                        </a:ext>
-                      </a:extLst>
-                    </a:blip>
-                    <a:stretch>
-                      <a:fillRect/>
-                    </a:stretch>
-                  </xdr:blipFill>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="7810500" y="9525000"/>
-                      <a:ext cx="1877785" cy="1170214"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </xdr:spPr>
-                </xdr:pic>
-              </xdr:grpSp>
-              <xdr:grpSp>
-                <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="127" name="Group 126"/>
-                  <xdr:cNvGrpSpPr/>
-                </xdr:nvGrpSpPr>
-                <xdr:grpSpPr>
-                  <a:xfrm>
-                    <a:off x="4175027" y="9483390"/>
-                    <a:ext cx="1148049" cy="1532480"/>
-                    <a:chOff x="4175027" y="9483390"/>
-                    <a:chExt cx="1148049" cy="1532480"/>
-                  </a:xfrm>
-                </xdr:grpSpPr>
-                <xdr:sp macro="" textlink="">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="128" name="TextBox 127"/>
-                    <xdr:cNvSpPr txBox="1"/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="4175027" y="9483390"/>
-                      <a:ext cx="1148049" cy="1532480"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln/>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="2">
-                      <a:schemeClr val="accent5">
-                        <a:shade val="50000"/>
-                      </a:schemeClr>
-                    </a:lnRef>
-                    <a:fillRef idx="1">
-                      <a:schemeClr val="accent5"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="accent5"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="lt1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b">
-                      <a:noAutofit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr algn="ctr"/>
-                      <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:endParaRPr>
-                    </a:p>
-                    <a:p>
-                      <a:pPr algn="ctr"/>
-                      <a:r>
-                        <a:rPr lang="en-US" sz="1100" b="1" i="0">
-                          <a:solidFill>
-                            <a:schemeClr val="lt1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <a:t>Makerting Portal</a:t>
-                      </a:r>
-                    </a:p>
-                    <a:p>
-                      <a:pPr algn="ctr"/>
-                      <a:endParaRPr lang="en-US" sz="1200">
-                        <a:effectLst/>
-                      </a:endParaRPr>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-                <xdr:pic>
-                  <xdr:nvPicPr>
-                    <xdr:cNvPr id="129" name="Picture 128"/>
-                    <xdr:cNvPicPr>
-                      <a:picLocks noChangeAspect="1"/>
-                    </xdr:cNvPicPr>
-                  </xdr:nvPicPr>
-                  <xdr:blipFill>
-                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
-                      <a:extLst>
-                        <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                          <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                        </a:ext>
-                      </a:extLst>
-                    </a:blip>
-                    <a:stretch>
-                      <a:fillRect/>
-                    </a:stretch>
-                  </xdr:blipFill>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="4428633" y="9883912"/>
-                      <a:ext cx="617663" cy="471866"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </xdr:spPr>
-                </xdr:pic>
-              </xdr:grpSp>
-            </xdr:grpSp>
-          </xdr:grpSp>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="117" name="Group 116"/>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="4202240" y="14641144"/>
-                <a:ext cx="5788164" cy="1893667"/>
-                <a:chOff x="1724025" y="2857500"/>
-                <a:chExt cx="3114675" cy="1857375"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="118" name="Rectangle 117"/>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="1724025" y="2857500"/>
-                  <a:ext cx="3114675" cy="1857375"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="accent5"/>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="lt1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="accent5"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:endParaRPr lang="en-US" sz="1100"/>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:pic>
-              <xdr:nvPicPr>
-                <xdr:cNvPr id="119" name="Picture 118"/>
-                <xdr:cNvPicPr>
-                  <a:picLocks noChangeAspect="1"/>
-                </xdr:cNvPicPr>
-              </xdr:nvPicPr>
-              <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
-                <a:stretch>
-                  <a:fillRect/>
-                </a:stretch>
-              </xdr:blipFill>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="3009899" y="3002199"/>
-                  <a:ext cx="997897" cy="1038431"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-              </xdr:spPr>
-            </xdr:pic>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="120" name="TextBox 119"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="1752600" y="2886075"/>
-                  <a:ext cx="1095375" cy="1800225"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="tx2"/>
-                  </a:solidFill>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:lnRef>
-                <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="tx1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr marL="0" indent="0" algn="ctr"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <a:t>Authorized and  Authenticated</a:t>
-                  </a:r>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <a:t> by</a:t>
-                  </a:r>
-                  <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:endParaRPr>
-                </a:p>
-                <a:p>
-                  <a:pPr marL="0" indent="0" algn="ctr"/>
-                  <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:endParaRPr>
-                </a:p>
-                <a:p>
-                  <a:pPr marL="0" indent="0" algn="ctr"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <a:t>389 directory server</a:t>
-                  </a:r>
-                </a:p>
-                <a:p>
-                  <a:pPr marL="0" indent="0" algn="ctr"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <a:t>(Directory Services and identity manager)</a:t>
-                  </a:r>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:pic>
-              <xdr:nvPicPr>
-                <xdr:cNvPr id="121" name="Picture 120"/>
-                <xdr:cNvPicPr>
-                  <a:picLocks noChangeAspect="1"/>
-                </xdr:cNvPicPr>
-              </xdr:nvPicPr>
-              <xdr:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45" cstate="print">
-                  <a:extLst>
-                    <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                      <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                    </a:ext>
-                  </a:extLst>
-                </a:blip>
-                <a:stretch>
-                  <a:fillRect/>
-                </a:stretch>
-              </xdr:blipFill>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="4086224" y="4385412"/>
-                  <a:ext cx="695125" cy="310324"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-              </xdr:spPr>
-            </xdr:pic>
-          </xdr:grpSp>
-        </xdr:grpSp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="113" name="Group 112"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="5497523" y="11317593"/>
-              <a:ext cx="4576100" cy="1448116"/>
-              <a:chOff x="1238250" y="5229225"/>
-              <a:chExt cx="3114675" cy="1857375"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="114" name="Rectangle 113"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="1238250" y="5229225"/>
-                <a:ext cx="3114675" cy="1857375"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent5"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent5"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="2" algn="r"/>
-                <a:endParaRPr lang="en-US" sz="1100"/>
-              </a:p>
-              <a:p>
-                <a:pPr lvl="2" algn="r"/>
-                <a:endParaRPr lang="en-US" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="115" name="TextBox 114"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="1257642" y="5257800"/>
-                <a:ext cx="1191606" cy="1800226"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln/>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" indent="0" algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="1" i="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>Provision, Monitor, Develop, Deploy,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t> Troubleshoot</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-      </xdr:grpSp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="107" name="Picture 106"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6681303" y="7623236"/>
-            <a:ext cx="880855" cy="714589"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="108" name="Picture 107"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8972826" y="5356087"/>
-            <a:ext cx="828261" cy="824580"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="109" name="Picture 108"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8931414" y="7509565"/>
-            <a:ext cx="944770" cy="944770"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="110" name="Picture 109"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6695109" y="6501847"/>
-            <a:ext cx="814455" cy="814455"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="111" name="Picture 110"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8972826" y="6464250"/>
-            <a:ext cx="852005" cy="842941"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>193261</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>152689</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419445</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>186083</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="178" name="Picture 177"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4460461" y="11392189"/>
-          <a:ext cx="835784" cy="604894"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>165651</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>27609</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>81199</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>141865</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="179" name="Picture 178"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7480851" y="11267109"/>
-          <a:ext cx="525148" cy="495256"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>414130</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>13803</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>528706</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>162337</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="180" name="Picture 179"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7729330" y="11824803"/>
-          <a:ext cx="724176" cy="720034"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>455544</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>27610</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>450797</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>56821</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="181" name="Picture 180"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8380344" y="11267110"/>
-          <a:ext cx="604853" cy="600711"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>390744</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>110434</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>585336</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>138043</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="182" name="Picture 181"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8925144" y="11921434"/>
-          <a:ext cx="804192" cy="599109"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>160513</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>82825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>150744</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>65155</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="183" name="Picture 182"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9304513" y="11322325"/>
-          <a:ext cx="599831" cy="553830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17135,27 +10298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="Y73" sqref="Y73"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AF25" sqref="AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
